--- a/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca_plot_meta.xlsx
+++ b/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca_plot_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2024_winter\2024_winter_intercrop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEDB7FA-1222-489D-B5CB-F28E52FBD62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200C00E-2BA0-4F03-9550-DF2E961778A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="2205" windowWidth="34770" windowHeight="18240" xr2:uid="{FD46450C-E646-4132-9981-A5248A9FD285}"/>
+    <workbookView xWindow="2772" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{FD46450C-E646-4132-9981-A5248A9FD285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="882">
   <si>
     <t>plot_name</t>
   </si>
@@ -2667,6 +2667,21 @@
   </si>
   <si>
     <t>grain</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>UON</t>
+  </si>
+  <si>
+    <t>NCSU-ALT</t>
+  </si>
+  <si>
+    <t>Martens</t>
+  </si>
+  <si>
+    <t>Noble</t>
   </si>
 </sst>
 </file>
@@ -3038,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA36764-1442-4990-856E-71936E79D866}">
-  <dimension ref="A1:L379"/>
+  <dimension ref="A1:N379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,9 +3071,11 @@
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3095,8 +3112,14 @@
       <c r="L1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>875</v>
+      </c>
+      <c r="N1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3127,8 +3150,14 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3162,8 +3191,14 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3194,8 +3229,14 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3229,8 +3270,14 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3261,8 +3308,14 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3296,8 +3349,14 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -3331,8 +3390,14 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3363,8 +3428,14 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3398,8 +3469,14 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3430,8 +3507,14 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3465,8 +3548,14 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3500,8 +3589,14 @@
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3535,8 +3630,14 @@
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3567,8 +3668,14 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3602,8 +3709,14 @@
       <c r="L16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3634,8 +3747,14 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3669,8 +3788,14 @@
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3704,8 +3829,14 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -3736,8 +3867,14 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3771,8 +3908,14 @@
       <c r="L21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -3806,8 +3949,14 @@
       <c r="L22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -3838,8 +3987,14 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -3873,8 +4028,14 @@
       <c r="L24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -3905,8 +4066,14 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -3940,8 +4107,14 @@
       <c r="L26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -3972,8 +4145,14 @@
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -4007,8 +4186,14 @@
       <c r="L28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -4039,8 +4224,14 @@
       <c r="L29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -4071,8 +4262,14 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -4106,8 +4303,14 @@
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -4138,8 +4341,14 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -4173,8 +4382,14 @@
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -4208,8 +4423,14 @@
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -4240,8 +4461,14 @@
       <c r="L35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -4275,8 +4502,14 @@
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4307,8 +4540,14 @@
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -4339,8 +4578,14 @@
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>107</v>
+      </c>
+      <c r="N38" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -4374,8 +4619,14 @@
       <c r="L39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -4409,8 +4660,14 @@
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>112</v>
+      </c>
+      <c r="N40" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -4441,8 +4698,14 @@
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>112</v>
+      </c>
+      <c r="N41" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -4476,8 +4739,14 @@
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -4511,8 +4780,14 @@
       <c r="L43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -4543,8 +4818,14 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -4578,8 +4859,14 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -4610,8 +4897,14 @@
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N46" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4645,8 +4938,14 @@
       <c r="L47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>126</v>
+      </c>
+      <c r="N47" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -4680,8 +4979,14 @@
       <c r="L48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -4712,8 +5017,14 @@
       <c r="L49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -4744,8 +5055,14 @@
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>135</v>
+      </c>
+      <c r="N50" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -4779,8 +5096,14 @@
       <c r="L51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>135</v>
+      </c>
+      <c r="N51" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -4814,8 +5137,14 @@
       <c r="L52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>140</v>
+      </c>
+      <c r="N52" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -4846,8 +5175,14 @@
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>140</v>
+      </c>
+      <c r="N53" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -4881,8 +5216,14 @@
       <c r="L54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>146</v>
+      </c>
+      <c r="N54" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>147</v>
       </c>
@@ -4913,8 +5254,14 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>146</v>
+      </c>
+      <c r="N55" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -4948,8 +5295,14 @@
       <c r="L56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>151</v>
+      </c>
+      <c r="N56" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -4980,8 +5333,14 @@
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>151</v>
+      </c>
+      <c r="N57" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -5015,8 +5374,14 @@
       <c r="L58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -5050,8 +5415,14 @@
       <c r="L59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -5085,8 +5456,14 @@
       <c r="L60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5120,8 +5497,14 @@
       <c r="L61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>162</v>
       </c>
@@ -5155,8 +5538,14 @@
       <c r="L62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>163</v>
+      </c>
+      <c r="N62" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>165</v>
       </c>
@@ -5187,8 +5576,14 @@
       <c r="L63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>163</v>
+      </c>
+      <c r="N63" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -5222,8 +5617,14 @@
       <c r="L64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>168</v>
+      </c>
+      <c r="N64" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -5254,8 +5655,14 @@
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>168</v>
+      </c>
+      <c r="N65" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -5289,8 +5696,14 @@
       <c r="L66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>173</v>
+      </c>
+      <c r="N66" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -5321,8 +5734,14 @@
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>173</v>
+      </c>
+      <c r="N67" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>177</v>
       </c>
@@ -5353,8 +5772,14 @@
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>178</v>
+      </c>
+      <c r="N68" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>180</v>
       </c>
@@ -5388,8 +5813,14 @@
       <c r="L69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>178</v>
+      </c>
+      <c r="N69" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -5423,8 +5854,14 @@
       <c r="L70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>183</v>
+      </c>
+      <c r="N70" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -5455,8 +5892,14 @@
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>183</v>
+      </c>
+      <c r="N71" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -5490,8 +5933,14 @@
       <c r="L72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>188</v>
+      </c>
+      <c r="N72" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5522,8 +5971,14 @@
       <c r="L73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>188</v>
+      </c>
+      <c r="N73" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -5554,8 +6009,14 @@
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>193</v>
+      </c>
+      <c r="N74" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>195</v>
       </c>
@@ -5589,8 +6050,14 @@
       <c r="L75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>193</v>
+      </c>
+      <c r="N75" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>197</v>
       </c>
@@ -5621,8 +6088,14 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>107</v>
+      </c>
+      <c r="N76" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>199</v>
       </c>
@@ -5656,8 +6129,14 @@
       <c r="L77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>107</v>
+      </c>
+      <c r="N77" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>201</v>
       </c>
@@ -5691,8 +6170,14 @@
       <c r="L78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>202</v>
+      </c>
+      <c r="N78" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -5723,8 +6208,14 @@
       <c r="L79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>202</v>
+      </c>
+      <c r="N79" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -5758,8 +6249,14 @@
       <c r="L80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>208</v>
+      </c>
+      <c r="N80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>209</v>
       </c>
@@ -5793,8 +6290,14 @@
       <c r="L81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>208</v>
+      </c>
+      <c r="N81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -5825,8 +6328,14 @@
       <c r="L82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>212</v>
+      </c>
+      <c r="N82" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -5860,8 +6369,14 @@
       <c r="L83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>212</v>
+      </c>
+      <c r="N83" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -5895,8 +6410,14 @@
       <c r="L84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>217</v>
+      </c>
+      <c r="N84" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>219</v>
       </c>
@@ -5927,8 +6448,14 @@
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>217</v>
+      </c>
+      <c r="N85" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>221</v>
       </c>
@@ -5959,8 +6486,14 @@
       <c r="L86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>222</v>
+      </c>
+      <c r="N86" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>224</v>
       </c>
@@ -5994,8 +6527,14 @@
       <c r="L87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>222</v>
+      </c>
+      <c r="N87" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>226</v>
       </c>
@@ -6029,8 +6568,14 @@
       <c r="L88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>227</v>
+      </c>
+      <c r="N88" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>229</v>
       </c>
@@ -6061,8 +6606,14 @@
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>227</v>
+      </c>
+      <c r="N89" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>231</v>
       </c>
@@ -6096,8 +6647,14 @@
       <c r="L90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>232</v>
+      </c>
+      <c r="N90" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -6128,8 +6685,14 @@
       <c r="L91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>232</v>
+      </c>
+      <c r="N91" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>236</v>
       </c>
@@ -6163,8 +6726,14 @@
       <c r="L92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>238</v>
+      </c>
+      <c r="N92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>239</v>
       </c>
@@ -6198,8 +6767,14 @@
       <c r="L93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>238</v>
+      </c>
+      <c r="N93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>241</v>
       </c>
@@ -6230,8 +6805,14 @@
       <c r="L94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>242</v>
+      </c>
+      <c r="N94" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>244</v>
       </c>
@@ -6265,8 +6846,14 @@
       <c r="L95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>242</v>
+      </c>
+      <c r="N95" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>246</v>
       </c>
@@ -6297,8 +6884,14 @@
       <c r="L96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>247</v>
+      </c>
+      <c r="N96" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>249</v>
       </c>
@@ -6332,8 +6925,14 @@
       <c r="L97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>247</v>
+      </c>
+      <c r="N97" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>251</v>
       </c>
@@ -6364,8 +6963,14 @@
       <c r="L98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -6399,8 +7004,14 @@
       <c r="L99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" t="s">
+        <v>23</v>
+      </c>
+      <c r="N99" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>255</v>
       </c>
@@ -6434,8 +7045,14 @@
       <c r="L100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" t="s">
+        <v>256</v>
+      </c>
+      <c r="N100" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -6466,8 +7083,14 @@
       <c r="L101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>256</v>
+      </c>
+      <c r="N101" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>260</v>
       </c>
@@ -6498,8 +7121,14 @@
       <c r="L102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>261</v>
+      </c>
+      <c r="N102" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>263</v>
       </c>
@@ -6533,8 +7162,14 @@
       <c r="L103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>261</v>
+      </c>
+      <c r="N103" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>265</v>
       </c>
@@ -6568,8 +7203,14 @@
       <c r="L104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
+        <v>267</v>
+      </c>
+      <c r="N104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>268</v>
       </c>
@@ -6603,8 +7244,14 @@
       <c r="L105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>267</v>
+      </c>
+      <c r="N105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>270</v>
       </c>
@@ -6638,8 +7285,14 @@
       <c r="L106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>97</v>
+      </c>
+      <c r="N106" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>272</v>
       </c>
@@ -6670,8 +7323,14 @@
       <c r="L107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" t="s">
+        <v>97</v>
+      </c>
+      <c r="N107" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>274</v>
       </c>
@@ -6705,8 +7364,14 @@
       <c r="L108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>15</v>
+      </c>
+      <c r="N108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>276</v>
       </c>
@@ -6740,8 +7405,14 @@
       <c r="L109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>15</v>
+      </c>
+      <c r="N109" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>278</v>
       </c>
@@ -6775,8 +7446,14 @@
       <c r="L110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>279</v>
+      </c>
+      <c r="N110" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>281</v>
       </c>
@@ -6807,8 +7484,14 @@
       <c r="L111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>279</v>
+      </c>
+      <c r="N111" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>283</v>
       </c>
@@ -6842,8 +7525,14 @@
       <c r="L112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" t="s">
+        <v>15</v>
+      </c>
+      <c r="N112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>285</v>
       </c>
@@ -6877,8 +7566,14 @@
       <c r="L113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" t="s">
+        <v>15</v>
+      </c>
+      <c r="N113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>287</v>
       </c>
@@ -6909,8 +7604,14 @@
       <c r="L114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>193</v>
+      </c>
+      <c r="N114" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>289</v>
       </c>
@@ -6944,8 +7645,14 @@
       <c r="L115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" t="s">
+        <v>193</v>
+      </c>
+      <c r="N115" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>291</v>
       </c>
@@ -6979,8 +7686,14 @@
       <c r="L116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>292</v>
+      </c>
+      <c r="N116" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>294</v>
       </c>
@@ -7011,8 +7724,14 @@
       <c r="L117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>292</v>
+      </c>
+      <c r="N117" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>296</v>
       </c>
@@ -7046,8 +7765,14 @@
       <c r="L118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>297</v>
+      </c>
+      <c r="N118" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>299</v>
       </c>
@@ -7078,8 +7803,14 @@
       <c r="L119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" t="s">
+        <v>297</v>
+      </c>
+      <c r="N119" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>301</v>
       </c>
@@ -7110,8 +7841,14 @@
       <c r="L120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" t="s">
+        <v>302</v>
+      </c>
+      <c r="N120" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>304</v>
       </c>
@@ -7145,8 +7882,14 @@
       <c r="L121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" t="s">
+        <v>302</v>
+      </c>
+      <c r="N121" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>306</v>
       </c>
@@ -7177,8 +7920,14 @@
       <c r="L122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" t="s">
+        <v>151</v>
+      </c>
+      <c r="N122" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>308</v>
       </c>
@@ -7212,8 +7961,14 @@
       <c r="L123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>151</v>
+      </c>
+      <c r="N123" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>310</v>
       </c>
@@ -7247,8 +8002,14 @@
       <c r="L124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" t="s">
+        <v>311</v>
+      </c>
+      <c r="N124" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>313</v>
       </c>
@@ -7279,8 +8040,14 @@
       <c r="L125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>311</v>
+      </c>
+      <c r="N125" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>315</v>
       </c>
@@ -7311,8 +8078,14 @@
       <c r="L126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>316</v>
+      </c>
+      <c r="N126" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>318</v>
       </c>
@@ -7346,8 +8119,14 @@
       <c r="L127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>316</v>
+      </c>
+      <c r="N127" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>320</v>
       </c>
@@ -7378,8 +8157,14 @@
       <c r="L128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" t="s">
+        <v>321</v>
+      </c>
+      <c r="N128" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>323</v>
       </c>
@@ -7413,8 +8198,14 @@
       <c r="L129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" t="s">
+        <v>321</v>
+      </c>
+      <c r="N129" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>325</v>
       </c>
@@ -7445,8 +8236,14 @@
       <c r="L130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>92</v>
+      </c>
+      <c r="N130" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>327</v>
       </c>
@@ -7480,8 +8277,14 @@
       <c r="L131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" t="s">
+        <v>92</v>
+      </c>
+      <c r="N131" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>329</v>
       </c>
@@ -7515,8 +8318,14 @@
       <c r="L132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" t="s">
+        <v>208</v>
+      </c>
+      <c r="N132" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>331</v>
       </c>
@@ -7550,8 +8359,14 @@
       <c r="L133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" t="s">
+        <v>208</v>
+      </c>
+      <c r="N133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>333</v>
       </c>
@@ -7585,8 +8400,14 @@
       <c r="L134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" t="s">
+        <v>335</v>
+      </c>
+      <c r="N134" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>336</v>
       </c>
@@ -7617,8 +8438,14 @@
       <c r="L135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>335</v>
+      </c>
+      <c r="N135" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>338</v>
       </c>
@@ -7652,8 +8479,14 @@
       <c r="L136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" t="s">
+        <v>340</v>
+      </c>
+      <c r="N136" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>341</v>
       </c>
@@ -7687,8 +8520,14 @@
       <c r="L137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>340</v>
+      </c>
+      <c r="N137" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>343</v>
       </c>
@@ -7719,8 +8558,14 @@
       <c r="L138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" t="s">
+        <v>261</v>
+      </c>
+      <c r="N138" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>345</v>
       </c>
@@ -7754,8 +8599,14 @@
       <c r="L139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" t="s">
+        <v>261</v>
+      </c>
+      <c r="N139" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>347</v>
       </c>
@@ -7789,8 +8640,14 @@
       <c r="L140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" t="s">
+        <v>15</v>
+      </c>
+      <c r="N140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>349</v>
       </c>
@@ -7824,8 +8681,14 @@
       <c r="L141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" t="s">
+        <v>15</v>
+      </c>
+      <c r="N141" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>351</v>
       </c>
@@ -7856,8 +8719,14 @@
       <c r="L142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" t="s">
+        <v>352</v>
+      </c>
+      <c r="N142" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>354</v>
       </c>
@@ -7891,8 +8760,14 @@
       <c r="L143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" t="s">
+        <v>352</v>
+      </c>
+      <c r="N143" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>356</v>
       </c>
@@ -7926,8 +8801,14 @@
       <c r="L144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" t="s">
+        <v>357</v>
+      </c>
+      <c r="N144" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>359</v>
       </c>
@@ -7958,8 +8839,14 @@
       <c r="L145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" t="s">
+        <v>357</v>
+      </c>
+      <c r="N145" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>361</v>
       </c>
@@ -7990,8 +8877,14 @@
       <c r="L146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
+        <v>362</v>
+      </c>
+      <c r="N146" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>364</v>
       </c>
@@ -8025,8 +8918,14 @@
       <c r="L147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" t="s">
+        <v>362</v>
+      </c>
+      <c r="N147" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>366</v>
       </c>
@@ -8057,8 +8956,14 @@
       <c r="L148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" t="s">
+        <v>178</v>
+      </c>
+      <c r="N148" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>368</v>
       </c>
@@ -8092,8 +8997,14 @@
       <c r="L149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" t="s">
+        <v>178</v>
+      </c>
+      <c r="N149" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>370</v>
       </c>
@@ -8127,8 +9038,14 @@
       <c r="L150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>371</v>
+      </c>
+      <c r="N150" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>373</v>
       </c>
@@ -8159,8 +9076,14 @@
       <c r="L151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" t="s">
+        <v>371</v>
+      </c>
+      <c r="N151" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>375</v>
       </c>
@@ -8194,8 +9117,14 @@
       <c r="L152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>376</v>
+      </c>
+      <c r="N152" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>378</v>
       </c>
@@ -8226,8 +9155,14 @@
       <c r="L153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" t="s">
+        <v>376</v>
+      </c>
+      <c r="N153" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>380</v>
       </c>
@@ -8261,8 +9196,14 @@
       <c r="L154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" t="s">
+        <v>279</v>
+      </c>
+      <c r="N154" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>382</v>
       </c>
@@ -8293,8 +9234,14 @@
       <c r="L155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" t="s">
+        <v>279</v>
+      </c>
+      <c r="N155" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -8325,8 +9272,14 @@
       <c r="L156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" t="s">
+        <v>385</v>
+      </c>
+      <c r="N156" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>387</v>
       </c>
@@ -8360,8 +9313,14 @@
       <c r="L157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" t="s">
+        <v>385</v>
+      </c>
+      <c r="N157" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>389</v>
       </c>
@@ -8392,8 +9351,14 @@
       <c r="L158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" t="s">
+        <v>390</v>
+      </c>
+      <c r="N158" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>392</v>
       </c>
@@ -8427,8 +9392,14 @@
       <c r="L159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" t="s">
+        <v>390</v>
+      </c>
+      <c r="N159" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>394</v>
       </c>
@@ -8459,8 +9430,14 @@
       <c r="L160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" t="s">
+        <v>395</v>
+      </c>
+      <c r="N160" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>397</v>
       </c>
@@ -8494,8 +9471,14 @@
       <c r="L161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" t="s">
+        <v>395</v>
+      </c>
+      <c r="N161" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>399</v>
       </c>
@@ -8526,8 +9509,14 @@
       <c r="L162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" t="s">
+        <v>400</v>
+      </c>
+      <c r="N162" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>402</v>
       </c>
@@ -8561,8 +9550,14 @@
       <c r="L163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163" t="s">
+        <v>400</v>
+      </c>
+      <c r="N163" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>404</v>
       </c>
@@ -8596,8 +9591,14 @@
       <c r="L164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164" t="s">
+        <v>15</v>
+      </c>
+      <c r="N164" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>406</v>
       </c>
@@ -8631,8 +9632,14 @@
       <c r="L165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165" t="s">
+        <v>15</v>
+      </c>
+      <c r="N165" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>408</v>
       </c>
@@ -8666,8 +9673,14 @@
       <c r="L166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166" t="s">
+        <v>409</v>
+      </c>
+      <c r="N166" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>411</v>
       </c>
@@ -8698,8 +9711,14 @@
       <c r="L167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167" t="s">
+        <v>409</v>
+      </c>
+      <c r="N167" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>413</v>
       </c>
@@ -8730,8 +9749,14 @@
       <c r="L168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" t="s">
+        <v>414</v>
+      </c>
+      <c r="N168" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>416</v>
       </c>
@@ -8765,8 +9790,14 @@
       <c r="L169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169" t="s">
+        <v>414</v>
+      </c>
+      <c r="N169" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>418</v>
       </c>
@@ -8797,8 +9828,14 @@
       <c r="L170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170" t="s">
+        <v>82</v>
+      </c>
+      <c r="N170" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>420</v>
       </c>
@@ -8832,8 +9869,14 @@
       <c r="L171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171" t="s">
+        <v>82</v>
+      </c>
+      <c r="N171" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>422</v>
       </c>
@@ -8867,8 +9910,14 @@
       <c r="L172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172" t="s">
+        <v>371</v>
+      </c>
+      <c r="N172" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>424</v>
       </c>
@@ -8899,8 +9948,14 @@
       <c r="L173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173" t="s">
+        <v>371</v>
+      </c>
+      <c r="N173" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>426</v>
       </c>
@@ -8934,8 +9989,14 @@
       <c r="L174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174" t="s">
+        <v>427</v>
+      </c>
+      <c r="N174" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>429</v>
       </c>
@@ -8966,8 +10027,14 @@
       <c r="L175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175" t="s">
+        <v>427</v>
+      </c>
+      <c r="N175" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>431</v>
       </c>
@@ -8998,8 +10065,14 @@
       <c r="L176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176" t="s">
+        <v>432</v>
+      </c>
+      <c r="N176" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>434</v>
       </c>
@@ -9033,8 +10106,14 @@
       <c r="L177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177" t="s">
+        <v>432</v>
+      </c>
+      <c r="N177" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>436</v>
       </c>
@@ -9068,8 +10147,14 @@
       <c r="L178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178" t="s">
+        <v>15</v>
+      </c>
+      <c r="N178" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>438</v>
       </c>
@@ -9103,8 +10188,14 @@
       <c r="L179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179" t="s">
+        <v>15</v>
+      </c>
+      <c r="N179" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>440</v>
       </c>
@@ -9138,8 +10229,14 @@
       <c r="L180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180" t="s">
+        <v>297</v>
+      </c>
+      <c r="N180" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>442</v>
       </c>
@@ -9170,8 +10267,14 @@
       <c r="L181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181" t="s">
+        <v>297</v>
+      </c>
+      <c r="N181" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>444</v>
       </c>
@@ -9205,8 +10308,14 @@
       <c r="L182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182" t="s">
+        <v>352</v>
+      </c>
+      <c r="N182" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>446</v>
       </c>
@@ -9237,8 +10346,14 @@
       <c r="L183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183" t="s">
+        <v>352</v>
+      </c>
+      <c r="N183" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>448</v>
       </c>
@@ -9269,8 +10384,14 @@
       <c r="L184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184" t="s">
+        <v>449</v>
+      </c>
+      <c r="N184" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>451</v>
       </c>
@@ -9304,8 +10425,14 @@
       <c r="L185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185" t="s">
+        <v>449</v>
+      </c>
+      <c r="N185" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>453</v>
       </c>
@@ -9339,8 +10466,14 @@
       <c r="L186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186" t="s">
+        <v>454</v>
+      </c>
+      <c r="N186" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>456</v>
       </c>
@@ -9371,8 +10504,14 @@
       <c r="L187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187" t="s">
+        <v>454</v>
+      </c>
+      <c r="N187" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>458</v>
       </c>
@@ -9406,8 +10545,14 @@
       <c r="L188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188" t="s">
+        <v>267</v>
+      </c>
+      <c r="N188" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>460</v>
       </c>
@@ -9441,8 +10586,14 @@
       <c r="L189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189" t="s">
+        <v>267</v>
+      </c>
+      <c r="N189" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>462</v>
       </c>
@@ -9476,8 +10627,14 @@
       <c r="L190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190" t="s">
+        <v>15</v>
+      </c>
+      <c r="N190" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>464</v>
       </c>
@@ -9511,8 +10668,14 @@
       <c r="L191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191" t="s">
+        <v>15</v>
+      </c>
+      <c r="N191" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>466</v>
       </c>
@@ -9546,8 +10709,14 @@
       <c r="L192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192" t="s">
+        <v>467</v>
+      </c>
+      <c r="N192" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>469</v>
       </c>
@@ -9578,8 +10747,14 @@
       <c r="L193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193" t="s">
+        <v>467</v>
+      </c>
+      <c r="N193" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>471</v>
       </c>
@@ -9613,8 +10788,14 @@
       <c r="L194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194" t="s">
+        <v>472</v>
+      </c>
+      <c r="N194" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>474</v>
       </c>
@@ -9645,8 +10826,14 @@
       <c r="L195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195" t="s">
+        <v>472</v>
+      </c>
+      <c r="N195" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>476</v>
       </c>
@@ -9677,8 +10864,14 @@
       <c r="L196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196" t="s">
+        <v>477</v>
+      </c>
+      <c r="N196" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>479</v>
       </c>
@@ -9712,8 +10905,14 @@
       <c r="L197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197" t="s">
+        <v>477</v>
+      </c>
+      <c r="N197" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>481</v>
       </c>
@@ -9744,8 +10943,14 @@
       <c r="L198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198" t="s">
+        <v>482</v>
+      </c>
+      <c r="N198" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>484</v>
       </c>
@@ -9779,8 +10984,14 @@
       <c r="L199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199" t="s">
+        <v>482</v>
+      </c>
+      <c r="N199" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>486</v>
       </c>
@@ -9814,8 +11025,14 @@
       <c r="L200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200" t="s">
+        <v>488</v>
+      </c>
+      <c r="N200" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>489</v>
       </c>
@@ -9846,8 +11063,14 @@
       <c r="L201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201" t="s">
+        <v>488</v>
+      </c>
+      <c r="N201" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>491</v>
       </c>
@@ -9878,8 +11101,14 @@
       <c r="L202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202" t="s">
+        <v>146</v>
+      </c>
+      <c r="N202" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>493</v>
       </c>
@@ -9913,8 +11142,14 @@
       <c r="L203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203" t="s">
+        <v>146</v>
+      </c>
+      <c r="N203" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>495</v>
       </c>
@@ -9948,8 +11183,14 @@
       <c r="L204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204" t="s">
+        <v>497</v>
+      </c>
+      <c r="N204" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>498</v>
       </c>
@@ -9980,8 +11221,14 @@
       <c r="L205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205" t="s">
+        <v>497</v>
+      </c>
+      <c r="N205" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>500</v>
       </c>
@@ -10015,8 +11262,14 @@
       <c r="L206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206" t="s">
+        <v>502</v>
+      </c>
+      <c r="N206" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>503</v>
       </c>
@@ -10047,8 +11300,14 @@
       <c r="L207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207" t="s">
+        <v>502</v>
+      </c>
+      <c r="N207" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>505</v>
       </c>
@@ -10079,8 +11338,14 @@
       <c r="L208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208" t="s">
+        <v>112</v>
+      </c>
+      <c r="N208" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>507</v>
       </c>
@@ -10114,8 +11379,14 @@
       <c r="L209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209" t="s">
+        <v>112</v>
+      </c>
+      <c r="N209" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>509</v>
       </c>
@@ -10149,8 +11420,14 @@
       <c r="L210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210" t="s">
+        <v>135</v>
+      </c>
+      <c r="N210" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>511</v>
       </c>
@@ -10181,8 +11458,14 @@
       <c r="L211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211" t="s">
+        <v>135</v>
+      </c>
+      <c r="N211" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>513</v>
       </c>
@@ -10216,8 +11499,14 @@
       <c r="L212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212" t="s">
+        <v>515</v>
+      </c>
+      <c r="N212" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>516</v>
       </c>
@@ -10248,8 +11537,14 @@
       <c r="L213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213" t="s">
+        <v>515</v>
+      </c>
+      <c r="N213" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>518</v>
       </c>
@@ -10280,8 +11575,14 @@
       <c r="L214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214" t="s">
+        <v>390</v>
+      </c>
+      <c r="N214" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>520</v>
       </c>
@@ -10315,8 +11616,14 @@
       <c r="L215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215" t="s">
+        <v>390</v>
+      </c>
+      <c r="N215" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>522</v>
       </c>
@@ -10350,8 +11657,14 @@
       <c r="L216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216" t="s">
+        <v>523</v>
+      </c>
+      <c r="N216" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>525</v>
       </c>
@@ -10382,8 +11695,14 @@
       <c r="L217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217" t="s">
+        <v>523</v>
+      </c>
+      <c r="N217" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>527</v>
       </c>
@@ -10417,8 +11736,14 @@
       <c r="L218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218" t="s">
+        <v>502</v>
+      </c>
+      <c r="N218" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>529</v>
       </c>
@@ -10449,8 +11774,14 @@
       <c r="L219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219" t="s">
+        <v>502</v>
+      </c>
+      <c r="N219" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>531</v>
       </c>
@@ -10484,8 +11815,14 @@
       <c r="L220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220" t="s">
+        <v>385</v>
+      </c>
+      <c r="N220" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>533</v>
       </c>
@@ -10516,8 +11853,14 @@
       <c r="L221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221" t="s">
+        <v>385</v>
+      </c>
+      <c r="N221" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>535</v>
       </c>
@@ -10551,8 +11894,14 @@
       <c r="L222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222" t="s">
+        <v>15</v>
+      </c>
+      <c r="N222" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>537</v>
       </c>
@@ -10586,8 +11935,14 @@
       <c r="L223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223" t="s">
+        <v>15</v>
+      </c>
+      <c r="N223" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>539</v>
       </c>
@@ -10618,8 +11973,14 @@
       <c r="L224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224" t="s">
+        <v>140</v>
+      </c>
+      <c r="N224" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>541</v>
       </c>
@@ -10653,8 +12014,14 @@
       <c r="L225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225" t="s">
+        <v>140</v>
+      </c>
+      <c r="N225" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>543</v>
       </c>
@@ -10685,8 +12052,14 @@
       <c r="L226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226" t="s">
+        <v>232</v>
+      </c>
+      <c r="N226" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>545</v>
       </c>
@@ -10720,8 +12093,14 @@
       <c r="L227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227" t="s">
+        <v>232</v>
+      </c>
+      <c r="N227" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>547</v>
       </c>
@@ -10752,8 +12131,14 @@
       <c r="L228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228" t="s">
+        <v>548</v>
+      </c>
+      <c r="N228" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>550</v>
       </c>
@@ -10787,8 +12172,14 @@
       <c r="L229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229" t="s">
+        <v>548</v>
+      </c>
+      <c r="N229" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>552</v>
       </c>
@@ -10822,8 +12213,14 @@
       <c r="L230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230" t="s">
+        <v>554</v>
+      </c>
+      <c r="N230" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>555</v>
       </c>
@@ -10857,8 +12254,14 @@
       <c r="L231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231" t="s">
+        <v>554</v>
+      </c>
+      <c r="N231" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>557</v>
       </c>
@@ -10892,8 +12295,14 @@
       <c r="L232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232" t="s">
+        <v>558</v>
+      </c>
+      <c r="N232" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>560</v>
       </c>
@@ -10924,8 +12333,14 @@
       <c r="L233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233" t="s">
+        <v>558</v>
+      </c>
+      <c r="N233" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>562</v>
       </c>
@@ -10956,8 +12371,14 @@
       <c r="L234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234" t="s">
+        <v>45</v>
+      </c>
+      <c r="N234" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>564</v>
       </c>
@@ -10991,8 +12412,14 @@
       <c r="L235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235" t="s">
+        <v>45</v>
+      </c>
+      <c r="N235" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>566</v>
       </c>
@@ -11026,8 +12453,14 @@
       <c r="L236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236" t="s">
+        <v>62</v>
+      </c>
+      <c r="N236" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>568</v>
       </c>
@@ -11058,8 +12491,14 @@
       <c r="L237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237" t="s">
+        <v>62</v>
+      </c>
+      <c r="N237" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>570</v>
       </c>
@@ -11093,8 +12532,14 @@
       <c r="L238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238" t="s">
+        <v>302</v>
+      </c>
+      <c r="N238" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>572</v>
       </c>
@@ -11125,8 +12570,14 @@
       <c r="L239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239" t="s">
+        <v>302</v>
+      </c>
+      <c r="N239" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>574</v>
       </c>
@@ -11160,8 +12611,14 @@
       <c r="L240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240" t="s">
+        <v>575</v>
+      </c>
+      <c r="N240" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>577</v>
       </c>
@@ -11192,8 +12649,14 @@
       <c r="L241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241" t="s">
+        <v>575</v>
+      </c>
+      <c r="N241" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>579</v>
       </c>
@@ -11224,8 +12687,14 @@
       <c r="L242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242" t="s">
+        <v>580</v>
+      </c>
+      <c r="N242" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>582</v>
       </c>
@@ -11259,8 +12728,14 @@
       <c r="L243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243" t="s">
+        <v>580</v>
+      </c>
+      <c r="N243" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>584</v>
       </c>
@@ -11294,8 +12769,14 @@
       <c r="L244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244" t="s">
+        <v>477</v>
+      </c>
+      <c r="N244" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>586</v>
       </c>
@@ -11326,8 +12807,14 @@
       <c r="L245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245" t="s">
+        <v>477</v>
+      </c>
+      <c r="N245" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>588</v>
       </c>
@@ -11361,8 +12848,14 @@
       <c r="L246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246" t="s">
+        <v>15</v>
+      </c>
+      <c r="N246" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>590</v>
       </c>
@@ -11396,8 +12889,14 @@
       <c r="L247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247" t="s">
+        <v>15</v>
+      </c>
+      <c r="N247" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>592</v>
       </c>
@@ -11431,8 +12930,14 @@
       <c r="L248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248" t="s">
+        <v>593</v>
+      </c>
+      <c r="N248" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>595</v>
       </c>
@@ -11463,8 +12968,14 @@
       <c r="L249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249" t="s">
+        <v>593</v>
+      </c>
+      <c r="N249" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>597</v>
       </c>
@@ -11498,8 +13009,14 @@
       <c r="L250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250" t="s">
+        <v>183</v>
+      </c>
+      <c r="N250" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>599</v>
       </c>
@@ -11530,8 +13047,14 @@
       <c r="L251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251" t="s">
+        <v>183</v>
+      </c>
+      <c r="N251" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>601</v>
       </c>
@@ -11562,8 +13085,14 @@
       <c r="L252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252" t="s">
+        <v>602</v>
+      </c>
+      <c r="N252" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>604</v>
       </c>
@@ -11597,8 +13126,14 @@
       <c r="L253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253" t="s">
+        <v>602</v>
+      </c>
+      <c r="N253" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>606</v>
       </c>
@@ -11629,8 +13164,14 @@
       <c r="L254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254" t="s">
+        <v>67</v>
+      </c>
+      <c r="N254" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>608</v>
       </c>
@@ -11664,8 +13205,14 @@
       <c r="L255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255" t="s">
+        <v>67</v>
+      </c>
+      <c r="N255" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>610</v>
       </c>
@@ -11699,8 +13246,14 @@
       <c r="L256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256" t="s">
+        <v>548</v>
+      </c>
+      <c r="N256" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>612</v>
       </c>
@@ -11731,8 +13284,14 @@
       <c r="L257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257" t="s">
+        <v>548</v>
+      </c>
+      <c r="N257" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>614</v>
       </c>
@@ -11763,8 +13322,14 @@
       <c r="L258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258" t="s">
+        <v>482</v>
+      </c>
+      <c r="N258" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>616</v>
       </c>
@@ -11798,8 +13363,14 @@
       <c r="L259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259" t="s">
+        <v>482</v>
+      </c>
+      <c r="N259" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>618</v>
       </c>
@@ -11830,8 +13401,14 @@
       <c r="L260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260" t="s">
+        <v>619</v>
+      </c>
+      <c r="N260" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>621</v>
       </c>
@@ -11865,8 +13442,14 @@
       <c r="L261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261" t="s">
+        <v>619</v>
+      </c>
+      <c r="N261" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>623</v>
       </c>
@@ -11900,8 +13483,14 @@
       <c r="L262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262" t="s">
+        <v>126</v>
+      </c>
+      <c r="N262" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>625</v>
       </c>
@@ -11932,8 +13521,14 @@
       <c r="L263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263" t="s">
+        <v>126</v>
+      </c>
+      <c r="N263" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>627</v>
       </c>
@@ -11967,8 +13562,14 @@
       <c r="L264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264" t="s">
+        <v>628</v>
+      </c>
+      <c r="N264" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>630</v>
       </c>
@@ -11999,8 +13600,14 @@
       <c r="L265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265" t="s">
+        <v>628</v>
+      </c>
+      <c r="N265" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>632</v>
       </c>
@@ -12034,8 +13641,14 @@
       <c r="L266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266" t="s">
+        <v>15</v>
+      </c>
+      <c r="N266" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>634</v>
       </c>
@@ -12069,8 +13682,14 @@
       <c r="L267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267" t="s">
+        <v>15</v>
+      </c>
+      <c r="N267" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>636</v>
       </c>
@@ -12101,8 +13720,14 @@
       <c r="L268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268" t="s">
+        <v>188</v>
+      </c>
+      <c r="N268" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>638</v>
       </c>
@@ -12136,8 +13761,14 @@
       <c r="L269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269" t="s">
+        <v>188</v>
+      </c>
+      <c r="N269" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>640</v>
       </c>
@@ -12168,8 +13799,14 @@
       <c r="L270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270" t="s">
+        <v>9</v>
+      </c>
+      <c r="N270" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>642</v>
       </c>
@@ -12203,8 +13840,14 @@
       <c r="L271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271" t="s">
+        <v>9</v>
+      </c>
+      <c r="N271" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>644</v>
       </c>
@@ -12235,8 +13878,14 @@
       <c r="L272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272" t="s">
+        <v>645</v>
+      </c>
+      <c r="N272" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>647</v>
       </c>
@@ -12270,8 +13919,14 @@
       <c r="L273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273" t="s">
+        <v>645</v>
+      </c>
+      <c r="N273" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>649</v>
       </c>
@@ -12302,8 +13957,14 @@
       <c r="L274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274" t="s">
+        <v>432</v>
+      </c>
+      <c r="N274" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>651</v>
       </c>
@@ -12337,8 +13998,14 @@
       <c r="L275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275" t="s">
+        <v>432</v>
+      </c>
+      <c r="N275" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>653</v>
       </c>
@@ -12369,8 +14036,14 @@
       <c r="L276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276" t="s">
+        <v>654</v>
+      </c>
+      <c r="N276" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>656</v>
       </c>
@@ -12404,8 +14077,14 @@
       <c r="L277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277" t="s">
+        <v>654</v>
+      </c>
+      <c r="N277" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>658</v>
       </c>
@@ -12439,8 +14118,14 @@
       <c r="L278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278" t="s">
+        <v>340</v>
+      </c>
+      <c r="N278" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>660</v>
       </c>
@@ -12474,8 +14159,14 @@
       <c r="L279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279" t="s">
+        <v>340</v>
+      </c>
+      <c r="N279" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>662</v>
       </c>
@@ -12509,8 +14200,14 @@
       <c r="L280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280" t="s">
+        <v>242</v>
+      </c>
+      <c r="N280" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>664</v>
       </c>
@@ -12541,8 +14238,14 @@
       <c r="L281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281" t="s">
+        <v>242</v>
+      </c>
+      <c r="N281" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>666</v>
       </c>
@@ -12576,8 +14279,14 @@
       <c r="L282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282" t="s">
+        <v>316</v>
+      </c>
+      <c r="N282" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>668</v>
       </c>
@@ -12608,8 +14317,14 @@
       <c r="L283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283" t="s">
+        <v>316</v>
+      </c>
+      <c r="N283" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>670</v>
       </c>
@@ -12643,8 +14358,14 @@
       <c r="L284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284" t="s">
+        <v>671</v>
+      </c>
+      <c r="N284" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>673</v>
       </c>
@@ -12675,8 +14396,14 @@
       <c r="L285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285" t="s">
+        <v>671</v>
+      </c>
+      <c r="N285" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>675</v>
       </c>
@@ -12707,8 +14434,14 @@
       <c r="L286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286" t="s">
+        <v>523</v>
+      </c>
+      <c r="N286" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>677</v>
       </c>
@@ -12742,8 +14475,14 @@
       <c r="L287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287" t="s">
+        <v>523</v>
+      </c>
+      <c r="N287" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>679</v>
       </c>
@@ -12777,8 +14516,14 @@
       <c r="L288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288" t="s">
+        <v>414</v>
+      </c>
+      <c r="N288" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>681</v>
       </c>
@@ -12809,8 +14554,14 @@
       <c r="L289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289" t="s">
+        <v>414</v>
+      </c>
+      <c r="N289" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>683</v>
       </c>
@@ -12844,8 +14595,14 @@
       <c r="L290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290" t="s">
+        <v>15</v>
+      </c>
+      <c r="N290" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>685</v>
       </c>
@@ -12879,8 +14636,14 @@
       <c r="L291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291" t="s">
+        <v>15</v>
+      </c>
+      <c r="N291" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>687</v>
       </c>
@@ -12914,8 +14677,14 @@
       <c r="L292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292" t="s">
+        <v>688</v>
+      </c>
+      <c r="N292" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>690</v>
       </c>
@@ -12946,8 +14715,14 @@
       <c r="L293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293" t="s">
+        <v>688</v>
+      </c>
+      <c r="N293" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>692</v>
       </c>
@@ -12978,8 +14753,14 @@
       <c r="L294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M294" t="s">
+        <v>693</v>
+      </c>
+      <c r="N294" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>695</v>
       </c>
@@ -13013,8 +14794,14 @@
       <c r="L295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M295" t="s">
+        <v>693</v>
+      </c>
+      <c r="N295" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>697</v>
       </c>
@@ -13048,8 +14835,14 @@
       <c r="L296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296" t="s">
+        <v>671</v>
+      </c>
+      <c r="N296" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>699</v>
       </c>
@@ -13080,8 +14873,14 @@
       <c r="L297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297" t="s">
+        <v>671</v>
+      </c>
+      <c r="N297" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>701</v>
       </c>
@@ -13115,8 +14914,14 @@
       <c r="L298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298" t="s">
+        <v>702</v>
+      </c>
+      <c r="N298" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>704</v>
       </c>
@@ -13147,8 +14952,14 @@
       <c r="L299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299" t="s">
+        <v>702</v>
+      </c>
+      <c r="N299" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>706</v>
       </c>
@@ -13179,8 +14990,14 @@
       <c r="L300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M300" t="s">
+        <v>449</v>
+      </c>
+      <c r="N300" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>708</v>
       </c>
@@ -13214,8 +15031,14 @@
       <c r="L301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301" t="s">
+        <v>449</v>
+      </c>
+      <c r="N301" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>710</v>
       </c>
@@ -13249,8 +15072,14 @@
       <c r="L302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302" t="s">
+        <v>711</v>
+      </c>
+      <c r="N302" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>713</v>
       </c>
@@ -13281,8 +15110,14 @@
       <c r="L303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303" t="s">
+        <v>711</v>
+      </c>
+      <c r="N303" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>715</v>
       </c>
@@ -13316,8 +15151,14 @@
       <c r="L304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304" t="s">
+        <v>238</v>
+      </c>
+      <c r="N304" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>717</v>
       </c>
@@ -13351,8 +15192,14 @@
       <c r="L305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305" t="s">
+        <v>238</v>
+      </c>
+      <c r="N305" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>719</v>
       </c>
@@ -13383,8 +15230,14 @@
       <c r="L306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306" t="s">
+        <v>720</v>
+      </c>
+      <c r="N306" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>722</v>
       </c>
@@ -13418,8 +15271,14 @@
       <c r="L307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307" t="s">
+        <v>720</v>
+      </c>
+      <c r="N307" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>724</v>
       </c>
@@ -13450,8 +15309,14 @@
       <c r="L308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308" t="s">
+        <v>102</v>
+      </c>
+      <c r="N308" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>726</v>
       </c>
@@ -13485,8 +15350,14 @@
       <c r="L309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309" t="s">
+        <v>102</v>
+      </c>
+      <c r="N309" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>728</v>
       </c>
@@ -13520,8 +15391,14 @@
       <c r="L310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310" t="s">
+        <v>227</v>
+      </c>
+      <c r="N310" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>730</v>
       </c>
@@ -13552,8 +15429,14 @@
       <c r="L311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311" t="s">
+        <v>227</v>
+      </c>
+      <c r="N311" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>732</v>
       </c>
@@ -13587,8 +15470,14 @@
       <c r="L312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312" t="s">
+        <v>15</v>
+      </c>
+      <c r="N312" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>734</v>
       </c>
@@ -13622,8 +15511,14 @@
       <c r="L313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313" t="s">
+        <v>15</v>
+      </c>
+      <c r="N313" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>736</v>
       </c>
@@ -13654,8 +15549,14 @@
       <c r="L314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314" t="s">
+        <v>409</v>
+      </c>
+      <c r="N314" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>738</v>
       </c>
@@ -13689,8 +15590,14 @@
       <c r="L315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315" t="s">
+        <v>409</v>
+      </c>
+      <c r="N315" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>740</v>
       </c>
@@ -13724,8 +15631,14 @@
       <c r="L316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316" t="s">
+        <v>357</v>
+      </c>
+      <c r="N316" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>742</v>
       </c>
@@ -13756,8 +15669,14 @@
       <c r="L317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317" t="s">
+        <v>357</v>
+      </c>
+      <c r="N317" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>744</v>
       </c>
@@ -13788,8 +15707,14 @@
       <c r="L318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318" t="s">
+        <v>488</v>
+      </c>
+      <c r="N318" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>746</v>
       </c>
@@ -13823,8 +15748,14 @@
       <c r="L319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319" t="s">
+        <v>488</v>
+      </c>
+      <c r="N319" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>748</v>
       </c>
@@ -13855,8 +15786,14 @@
       <c r="L320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M320" t="s">
+        <v>558</v>
+      </c>
+      <c r="N320" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>750</v>
       </c>
@@ -13890,8 +15827,14 @@
       <c r="L321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M321" t="s">
+        <v>558</v>
+      </c>
+      <c r="N321" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>752</v>
       </c>
@@ -13925,8 +15868,14 @@
       <c r="L322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M322" t="s">
+        <v>15</v>
+      </c>
+      <c r="N322" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>754</v>
       </c>
@@ -13960,8 +15909,14 @@
       <c r="L323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M323" t="s">
+        <v>15</v>
+      </c>
+      <c r="N323" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>756</v>
       </c>
@@ -13992,8 +15947,14 @@
       <c r="L324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M324" t="s">
+        <v>757</v>
+      </c>
+      <c r="N324" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>759</v>
       </c>
@@ -14027,8 +15988,14 @@
       <c r="L325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M325" t="s">
+        <v>757</v>
+      </c>
+      <c r="N325" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>761</v>
       </c>
@@ -14059,8 +16026,14 @@
       <c r="L326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M326" t="s">
+        <v>87</v>
+      </c>
+      <c r="N326" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>763</v>
       </c>
@@ -14094,8 +16067,14 @@
       <c r="L327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M327" t="s">
+        <v>87</v>
+      </c>
+      <c r="N327" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>765</v>
       </c>
@@ -14126,8 +16105,14 @@
       <c r="L328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M328" t="s">
+        <v>688</v>
+      </c>
+      <c r="N328" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>767</v>
       </c>
@@ -14161,8 +16146,14 @@
       <c r="L329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M329" t="s">
+        <v>688</v>
+      </c>
+      <c r="N329" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>769</v>
       </c>
@@ -14196,8 +16187,14 @@
       <c r="L330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M330" t="s">
+        <v>770</v>
+      </c>
+      <c r="N330" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>772</v>
       </c>
@@ -14228,8 +16225,14 @@
       <c r="L331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M331" t="s">
+        <v>770</v>
+      </c>
+      <c r="N331" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>774</v>
       </c>
@@ -14263,8 +16266,14 @@
       <c r="L332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M332" t="s">
+        <v>554</v>
+      </c>
+      <c r="N332" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>776</v>
       </c>
@@ -14298,8 +16307,14 @@
       <c r="L333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M333" t="s">
+        <v>554</v>
+      </c>
+      <c r="N333" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>778</v>
       </c>
@@ -14333,8 +16348,14 @@
       <c r="L334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334" t="s">
+        <v>212</v>
+      </c>
+      <c r="N334" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>780</v>
       </c>
@@ -14365,8 +16386,14 @@
       <c r="L335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M335" t="s">
+        <v>212</v>
+      </c>
+      <c r="N335" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>782</v>
       </c>
@@ -14397,8 +16424,14 @@
       <c r="L336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M336" t="s">
+        <v>121</v>
+      </c>
+      <c r="N336" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>784</v>
       </c>
@@ -14432,8 +16465,14 @@
       <c r="L337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M337" t="s">
+        <v>121</v>
+      </c>
+      <c r="N337" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>786</v>
       </c>
@@ -14464,8 +16503,14 @@
       <c r="L338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M338" t="s">
+        <v>362</v>
+      </c>
+      <c r="N338" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>788</v>
       </c>
@@ -14499,8 +16544,14 @@
       <c r="L339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M339" t="s">
+        <v>362</v>
+      </c>
+      <c r="N339" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>790</v>
       </c>
@@ -14531,8 +16582,14 @@
       <c r="L340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340" t="s">
+        <v>472</v>
+      </c>
+      <c r="N340" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>792</v>
       </c>
@@ -14566,8 +16623,14 @@
       <c r="L341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M341" t="s">
+        <v>472</v>
+      </c>
+      <c r="N341" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>794</v>
       </c>
@@ -14598,8 +16661,14 @@
       <c r="L342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M342" t="s">
+        <v>292</v>
+      </c>
+      <c r="N342" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>796</v>
       </c>
@@ -14633,8 +16702,14 @@
       <c r="L343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M343" t="s">
+        <v>292</v>
+      </c>
+      <c r="N343" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>798</v>
       </c>
@@ -14668,8 +16743,14 @@
       <c r="L344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M344" t="s">
+        <v>602</v>
+      </c>
+      <c r="N344" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>800</v>
       </c>
@@ -14700,8 +16781,14 @@
       <c r="L345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M345" t="s">
+        <v>602</v>
+      </c>
+      <c r="N345" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>802</v>
       </c>
@@ -14732,8 +16819,14 @@
       <c r="L346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M346" t="s">
+        <v>217</v>
+      </c>
+      <c r="N346" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>804</v>
       </c>
@@ -14767,8 +16860,14 @@
       <c r="L347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M347" t="s">
+        <v>217</v>
+      </c>
+      <c r="N347" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>806</v>
       </c>
@@ -14802,8 +16901,14 @@
       <c r="L348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M348" t="s">
+        <v>807</v>
+      </c>
+      <c r="N348" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>809</v>
       </c>
@@ -14834,8 +16939,14 @@
       <c r="L349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M349" t="s">
+        <v>807</v>
+      </c>
+      <c r="N349" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>811</v>
       </c>
@@ -14866,8 +16977,14 @@
       <c r="L350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M350" t="s">
+        <v>163</v>
+      </c>
+      <c r="N350" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>813</v>
       </c>
@@ -14901,8 +17018,14 @@
       <c r="L351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M351" t="s">
+        <v>163</v>
+      </c>
+      <c r="N351" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>815</v>
       </c>
@@ -14933,8 +17056,14 @@
       <c r="L352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352" t="s">
+        <v>711</v>
+      </c>
+      <c r="N352" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>817</v>
       </c>
@@ -14968,8 +17097,14 @@
       <c r="L353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353" t="s">
+        <v>711</v>
+      </c>
+      <c r="N353" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>819</v>
       </c>
@@ -15003,8 +17138,14 @@
       <c r="L354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354" t="s">
+        <v>15</v>
+      </c>
+      <c r="N354" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>821</v>
       </c>
@@ -15038,8 +17179,14 @@
       <c r="L355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355" t="s">
+        <v>15</v>
+      </c>
+      <c r="N355" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>823</v>
       </c>
@@ -15070,8 +17217,14 @@
       <c r="L356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356" t="s">
+        <v>702</v>
+      </c>
+      <c r="N356" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>825</v>
       </c>
@@ -15105,8 +17258,14 @@
       <c r="L357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357" t="s">
+        <v>702</v>
+      </c>
+      <c r="N357" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>827</v>
       </c>
@@ -15137,8 +17296,14 @@
       <c r="L358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358" t="s">
+        <v>693</v>
+      </c>
+      <c r="N358" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>829</v>
       </c>
@@ -15172,8 +17337,14 @@
       <c r="L359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359" t="s">
+        <v>693</v>
+      </c>
+      <c r="N359" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>831</v>
       </c>
@@ -15204,8 +17375,14 @@
       <c r="L360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360" t="s">
+        <v>454</v>
+      </c>
+      <c r="N360" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>833</v>
       </c>
@@ -15239,8 +17416,14 @@
       <c r="L361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M361" t="s">
+        <v>454</v>
+      </c>
+      <c r="N361" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>835</v>
       </c>
@@ -15274,8 +17457,14 @@
       <c r="L362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M362" t="s">
+        <v>15</v>
+      </c>
+      <c r="N362" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>837</v>
       </c>
@@ -15309,8 +17498,14 @@
       <c r="L363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M363" t="s">
+        <v>15</v>
+      </c>
+      <c r="N363" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>839</v>
       </c>
@@ -15344,8 +17539,14 @@
       <c r="L364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364" t="s">
+        <v>593</v>
+      </c>
+      <c r="N364" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>841</v>
       </c>
@@ -15376,8 +17577,14 @@
       <c r="L365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M365" t="s">
+        <v>593</v>
+      </c>
+      <c r="N365" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>843</v>
       </c>
@@ -15411,8 +17618,14 @@
       <c r="L366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M366" t="s">
+        <v>55</v>
+      </c>
+      <c r="N366" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>845</v>
       </c>
@@ -15446,8 +17659,14 @@
       <c r="L367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M367" t="s">
+        <v>55</v>
+      </c>
+      <c r="N367" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>847</v>
       </c>
@@ -15478,8 +17697,14 @@
       <c r="L368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M368" t="s">
+        <v>848</v>
+      </c>
+      <c r="N368" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>850</v>
       </c>
@@ -15513,8 +17738,14 @@
       <c r="L369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M369" t="s">
+        <v>848</v>
+      </c>
+      <c r="N369" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>852</v>
       </c>
@@ -15548,8 +17779,14 @@
       <c r="L370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M370" t="s">
+        <v>853</v>
+      </c>
+      <c r="N370" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>855</v>
       </c>
@@ -15580,8 +17817,14 @@
       <c r="L371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M371" t="s">
+        <v>853</v>
+      </c>
+      <c r="N371" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>857</v>
       </c>
@@ -15612,8 +17855,14 @@
       <c r="L372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M372" t="s">
+        <v>628</v>
+      </c>
+      <c r="N372" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>859</v>
       </c>
@@ -15647,8 +17896,14 @@
       <c r="L373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M373" t="s">
+        <v>628</v>
+      </c>
+      <c r="N373" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>861</v>
       </c>
@@ -15679,8 +17934,14 @@
       <c r="L374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M374" t="s">
+        <v>33</v>
+      </c>
+      <c r="N374" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>863</v>
       </c>
@@ -15714,8 +17975,14 @@
       <c r="L375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M375" t="s">
+        <v>33</v>
+      </c>
+      <c r="N375" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>865</v>
       </c>
@@ -15746,8 +18013,14 @@
       <c r="L376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376" t="s">
+        <v>400</v>
+      </c>
+      <c r="N376" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>867</v>
       </c>
@@ -15781,8 +18054,14 @@
       <c r="L377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M377" t="s">
+        <v>400</v>
+      </c>
+      <c r="N377" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>869</v>
       </c>
@@ -15816,8 +18095,14 @@
       <c r="L378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M378" t="s">
+        <v>870</v>
+      </c>
+      <c r="N378" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>872</v>
       </c>
@@ -15847,6 +18132,12 @@
       </c>
       <c r="L379">
         <v>0</v>
+      </c>
+      <c r="M379" t="s">
+        <v>870</v>
+      </c>
+      <c r="N379" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>

--- a/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca_plot_meta.xlsx
+++ b/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca_plot_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2024_winter\2024_winter_intercrop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200C00E-2BA0-4F03-9550-DF2E961778A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F2FCE2-C8ED-45EE-95A6-893B77A4E198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2772" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{FD46450C-E646-4132-9981-A5248A9FD285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FD46450C-E646-4132-9981-A5248A9FD285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3056,7 +3056,7 @@
   <dimension ref="A1:N379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca_plot_meta.xlsx
+++ b/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca_plot_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2024_winter\2024_winter_intercrop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F2FCE2-C8ED-45EE-95A6-893B77A4E198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0D20C-745E-4692-B681-849E626BF8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FD46450C-E646-4132-9981-A5248A9FD285}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="38670" windowHeight="21270" xr2:uid="{FD46450C-E646-4132-9981-A5248A9FD285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca_plot_meta.xlsx
+++ b/data/Cornell_WinterOatPeaIntercrop_2024_Ithaca_plot_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2024_winter\2024_winter_intercrop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0D20C-745E-4692-B681-849E626BF8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD1141-4793-4B7E-8A79-A5602B4456B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="38670" windowHeight="21270" xr2:uid="{FD46450C-E646-4132-9981-A5248A9FD285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FD46450C-E646-4132-9981-A5248A9FD285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="882">
   <si>
     <t>plot_name</t>
   </si>
@@ -3053,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA36764-1442-4990-856E-71936E79D866}">
-  <dimension ref="A1:N379"/>
+  <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,11 +3071,10 @@
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3113,13 +3112,10 @@
         <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>875</v>
-      </c>
-      <c r="N1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3151,13 +3147,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3192,13 +3185,10 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3230,13 +3220,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3271,13 +3258,10 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3309,13 +3293,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3350,13 +3331,10 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -3391,13 +3369,10 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3429,13 +3404,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3470,13 +3442,10 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3508,13 +3477,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3549,13 +3515,10 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3590,13 +3553,10 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3631,13 +3591,10 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3669,13 +3626,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3710,13 +3664,10 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3748,13 +3699,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3789,13 +3737,10 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3830,13 +3775,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -3868,13 +3810,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3909,13 +3848,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -3950,13 +3886,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -3988,13 +3921,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -4029,13 +3959,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>73</v>
-      </c>
-      <c r="N24" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -4067,13 +3994,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -4108,13 +4032,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -4146,13 +4067,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -4187,13 +4105,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
-      </c>
-      <c r="N28" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -4225,13 +4140,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
-      </c>
-      <c r="N29" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -4263,13 +4175,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
-      </c>
-      <c r="N30" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -4304,13 +4213,10 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>87</v>
-      </c>
-      <c r="N31" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -4342,13 +4248,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N32" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -4383,13 +4286,10 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>92</v>
-      </c>
-      <c r="N33" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -4424,13 +4324,10 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>97</v>
-      </c>
-      <c r="N34" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -4462,13 +4359,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>97</v>
-      </c>
-      <c r="N35" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -4503,13 +4397,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
-      </c>
-      <c r="N36" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4541,13 +4432,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
-      </c>
-      <c r="N37" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -4579,13 +4467,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
-      </c>
-      <c r="N38" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -4620,13 +4505,10 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>107</v>
-      </c>
-      <c r="N39" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -4661,13 +4543,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>112</v>
-      </c>
-      <c r="N40" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -4699,13 +4578,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>112</v>
-      </c>
-      <c r="N41" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -4740,13 +4616,10 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>15</v>
-      </c>
-      <c r="N42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -4781,13 +4654,10 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>15</v>
-      </c>
-      <c r="N43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -4819,13 +4689,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
-      </c>
-      <c r="N44" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -4860,13 +4727,10 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>121</v>
-      </c>
-      <c r="N45" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -4898,13 +4762,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>126</v>
-      </c>
-      <c r="N46" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4939,13 +4800,10 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>126</v>
-      </c>
-      <c r="N47" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -4980,13 +4838,10 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>28</v>
-      </c>
-      <c r="N48" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -5018,13 +4873,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>28</v>
-      </c>
-      <c r="N49" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -5056,13 +4908,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>135</v>
-      </c>
-      <c r="N50" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -5097,13 +4946,10 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>135</v>
-      </c>
-      <c r="N51" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -5138,13 +4984,10 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>140</v>
-      </c>
-      <c r="N52" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -5176,13 +5019,10 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>140</v>
-      </c>
-      <c r="N53" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -5217,13 +5057,10 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>146</v>
-      </c>
-      <c r="N54" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>147</v>
       </c>
@@ -5255,13 +5092,10 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>146</v>
-      </c>
-      <c r="N55" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -5296,13 +5130,10 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>151</v>
-      </c>
-      <c r="N56" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -5334,13 +5165,10 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>151</v>
-      </c>
-      <c r="N57" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -5375,13 +5203,10 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>15</v>
-      </c>
-      <c r="N58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -5416,13 +5241,10 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>15</v>
-      </c>
-      <c r="N59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -5457,13 +5279,10 @@
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>15</v>
-      </c>
-      <c r="N60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -5498,13 +5317,10 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>15</v>
-      </c>
-      <c r="N61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>162</v>
       </c>
@@ -5539,13 +5355,10 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>163</v>
-      </c>
-      <c r="N62" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>165</v>
       </c>
@@ -5577,13 +5390,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>163</v>
-      </c>
-      <c r="N63" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -5618,13 +5428,10 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>168</v>
-      </c>
-      <c r="N64" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -5656,13 +5463,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>168</v>
-      </c>
-      <c r="N65" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -5697,13 +5501,10 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>173</v>
-      </c>
-      <c r="N66" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -5735,13 +5536,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>173</v>
-      </c>
-      <c r="N67" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>177</v>
       </c>
@@ -5773,13 +5571,10 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>178</v>
-      </c>
-      <c r="N68" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>180</v>
       </c>
@@ -5814,13 +5609,10 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>178</v>
-      </c>
-      <c r="N69" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -5855,13 +5647,10 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>183</v>
-      </c>
-      <c r="N70" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -5893,13 +5682,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>183</v>
-      </c>
-      <c r="N71" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -5934,13 +5720,10 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>188</v>
-      </c>
-      <c r="N72" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -5972,13 +5755,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>188</v>
-      </c>
-      <c r="N73" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -6010,13 +5790,10 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>193</v>
-      </c>
-      <c r="N74" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>195</v>
       </c>
@@ -6051,13 +5828,10 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>193</v>
-      </c>
-      <c r="N75" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>197</v>
       </c>
@@ -6089,13 +5863,10 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>107</v>
-      </c>
-      <c r="N76" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>199</v>
       </c>
@@ -6130,13 +5901,10 @@
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>107</v>
-      </c>
-      <c r="N77" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>201</v>
       </c>
@@ -6171,13 +5939,10 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>202</v>
-      </c>
-      <c r="N78" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -6209,13 +5974,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>202</v>
-      </c>
-      <c r="N79" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>206</v>
       </c>
@@ -6250,13 +6012,10 @@
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>208</v>
-      </c>
-      <c r="N80" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>209</v>
       </c>
@@ -6291,13 +6050,10 @@
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>208</v>
-      </c>
-      <c r="N81" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -6329,13 +6085,10 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>212</v>
-      </c>
-      <c r="N82" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -6370,13 +6123,10 @@
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>212</v>
-      </c>
-      <c r="N83" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -6411,13 +6161,10 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>217</v>
-      </c>
-      <c r="N84" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>219</v>
       </c>
@@ -6449,13 +6196,10 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>217</v>
-      </c>
-      <c r="N85" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>221</v>
       </c>
@@ -6487,13 +6231,10 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>222</v>
-      </c>
-      <c r="N86" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>224</v>
       </c>
@@ -6528,13 +6269,10 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>222</v>
-      </c>
-      <c r="N87" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>226</v>
       </c>
@@ -6569,13 +6307,10 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>227</v>
-      </c>
-      <c r="N88" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>229</v>
       </c>
@@ -6607,13 +6342,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>227</v>
-      </c>
-      <c r="N89" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>231</v>
       </c>
@@ -6648,13 +6380,10 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>232</v>
-      </c>
-      <c r="N90" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -6686,13 +6415,10 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>232</v>
-      </c>
-      <c r="N91" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>236</v>
       </c>
@@ -6727,13 +6453,10 @@
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>238</v>
-      </c>
-      <c r="N92" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>239</v>
       </c>
@@ -6768,13 +6491,10 @@
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>238</v>
-      </c>
-      <c r="N93" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>241</v>
       </c>
@@ -6806,13 +6526,10 @@
         <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>242</v>
-      </c>
-      <c r="N94" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>244</v>
       </c>
@@ -6847,13 +6564,10 @@
         <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>242</v>
-      </c>
-      <c r="N95" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>246</v>
       </c>
@@ -6885,13 +6599,10 @@
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>247</v>
-      </c>
-      <c r="N96" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>249</v>
       </c>
@@ -6926,13 +6637,10 @@
         <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>247</v>
-      </c>
-      <c r="N97" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>251</v>
       </c>
@@ -6964,13 +6672,10 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>23</v>
-      </c>
-      <c r="N98" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -7005,13 +6710,10 @@
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>23</v>
-      </c>
-      <c r="N99" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>255</v>
       </c>
@@ -7046,13 +6748,10 @@
         <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>256</v>
-      </c>
-      <c r="N100" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -7084,13 +6783,10 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>256</v>
-      </c>
-      <c r="N101" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>260</v>
       </c>
@@ -7122,13 +6818,10 @@
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>261</v>
-      </c>
-      <c r="N102" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>263</v>
       </c>
@@ -7163,13 +6856,10 @@
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>261</v>
-      </c>
-      <c r="N103" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>265</v>
       </c>
@@ -7204,13 +6894,10 @@
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>267</v>
-      </c>
-      <c r="N104" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>268</v>
       </c>
@@ -7245,13 +6932,10 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>267</v>
-      </c>
-      <c r="N105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>270</v>
       </c>
@@ -7286,13 +6970,10 @@
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>97</v>
-      </c>
-      <c r="N106" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>272</v>
       </c>
@@ -7324,13 +7005,10 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>97</v>
-      </c>
-      <c r="N107" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>274</v>
       </c>
@@ -7365,13 +7043,10 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>15</v>
-      </c>
-      <c r="N108" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>276</v>
       </c>
@@ -7406,13 +7081,10 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>15</v>
-      </c>
-      <c r="N109" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>278</v>
       </c>
@@ -7447,13 +7119,10 @@
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>279</v>
-      </c>
-      <c r="N110" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>281</v>
       </c>
@@ -7485,13 +7154,10 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>279</v>
-      </c>
-      <c r="N111" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>283</v>
       </c>
@@ -7526,13 +7192,10 @@
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>15</v>
-      </c>
-      <c r="N112" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>285</v>
       </c>
@@ -7567,13 +7230,10 @@
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>15</v>
-      </c>
-      <c r="N113" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>287</v>
       </c>
@@ -7605,13 +7265,10 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>193</v>
-      </c>
-      <c r="N114" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>289</v>
       </c>
@@ -7646,13 +7303,10 @@
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>193</v>
-      </c>
-      <c r="N115" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>291</v>
       </c>
@@ -7687,13 +7341,10 @@
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>292</v>
-      </c>
-      <c r="N116" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>294</v>
       </c>
@@ -7725,13 +7376,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>292</v>
-      </c>
-      <c r="N117" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>296</v>
       </c>
@@ -7766,13 +7414,10 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>297</v>
-      </c>
-      <c r="N118" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>299</v>
       </c>
@@ -7804,13 +7449,10 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>297</v>
-      </c>
-      <c r="N119" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>301</v>
       </c>
@@ -7842,13 +7484,10 @@
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>302</v>
-      </c>
-      <c r="N120" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>304</v>
       </c>
@@ -7883,13 +7522,10 @@
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>302</v>
-      </c>
-      <c r="N121" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>306</v>
       </c>
@@ -7921,13 +7557,10 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>151</v>
-      </c>
-      <c r="N122" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>308</v>
       </c>
@@ -7962,13 +7595,10 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>151</v>
-      </c>
-      <c r="N123" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>310</v>
       </c>
@@ -8003,13 +7633,10 @@
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>311</v>
-      </c>
-      <c r="N124" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>313</v>
       </c>
@@ -8041,13 +7668,10 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>311</v>
-      </c>
-      <c r="N125" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>315</v>
       </c>
@@ -8079,13 +7703,10 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>316</v>
-      </c>
-      <c r="N126" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>318</v>
       </c>
@@ -8120,13 +7741,10 @@
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>316</v>
-      </c>
-      <c r="N127" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>320</v>
       </c>
@@ -8158,13 +7776,10 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>321</v>
-      </c>
-      <c r="N128" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>323</v>
       </c>
@@ -8199,13 +7814,10 @@
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>321</v>
-      </c>
-      <c r="N129" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>325</v>
       </c>
@@ -8237,13 +7849,10 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>92</v>
-      </c>
-      <c r="N130" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>327</v>
       </c>
@@ -8278,13 +7887,10 @@
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>92</v>
-      </c>
-      <c r="N131" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>329</v>
       </c>
@@ -8319,13 +7925,10 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>208</v>
-      </c>
-      <c r="N132" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>331</v>
       </c>
@@ -8360,13 +7963,10 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>208</v>
-      </c>
-      <c r="N133" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>333</v>
       </c>
@@ -8401,13 +8001,10 @@
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>335</v>
-      </c>
-      <c r="N134" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>336</v>
       </c>
@@ -8439,13 +8036,10 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>335</v>
-      </c>
-      <c r="N135" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>338</v>
       </c>
@@ -8480,13 +8074,10 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>340</v>
-      </c>
-      <c r="N136" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>341</v>
       </c>
@@ -8521,13 +8112,10 @@
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>340</v>
-      </c>
-      <c r="N137" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>343</v>
       </c>
@@ -8559,13 +8147,10 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>261</v>
-      </c>
-      <c r="N138" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>345</v>
       </c>
@@ -8600,13 +8185,10 @@
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>261</v>
-      </c>
-      <c r="N139" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>347</v>
       </c>
@@ -8641,13 +8223,10 @@
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>15</v>
-      </c>
-      <c r="N140" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>349</v>
       </c>
@@ -8682,13 +8261,10 @@
         <v>1</v>
       </c>
       <c r="M141" t="s">
-        <v>15</v>
-      </c>
-      <c r="N141" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>351</v>
       </c>
@@ -8720,13 +8296,10 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>352</v>
-      </c>
-      <c r="N142" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>354</v>
       </c>
@@ -8761,13 +8334,10 @@
         <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>352</v>
-      </c>
-      <c r="N143" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>356</v>
       </c>
@@ -8802,13 +8372,10 @@
         <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>357</v>
-      </c>
-      <c r="N144" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>359</v>
       </c>
@@ -8840,13 +8407,10 @@
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>357</v>
-      </c>
-      <c r="N145" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>361</v>
       </c>
@@ -8878,13 +8442,10 @@
         <v>0</v>
       </c>
       <c r="M146" t="s">
-        <v>362</v>
-      </c>
-      <c r="N146" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>364</v>
       </c>
@@ -8919,13 +8480,10 @@
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>362</v>
-      </c>
-      <c r="N147" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>366</v>
       </c>
@@ -8957,13 +8515,10 @@
         <v>0</v>
       </c>
       <c r="M148" t="s">
-        <v>178</v>
-      </c>
-      <c r="N148" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>368</v>
       </c>
@@ -8998,13 +8553,10 @@
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>178</v>
-      </c>
-      <c r="N149" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>370</v>
       </c>
@@ -9039,13 +8591,10 @@
         <v>1</v>
       </c>
       <c r="M150" t="s">
-        <v>371</v>
-      </c>
-      <c r="N150" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>373</v>
       </c>
@@ -9077,13 +8626,10 @@
         <v>0</v>
       </c>
       <c r="M151" t="s">
-        <v>371</v>
-      </c>
-      <c r="N151" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>375</v>
       </c>
@@ -9118,13 +8664,10 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>376</v>
-      </c>
-      <c r="N152" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>378</v>
       </c>
@@ -9156,13 +8699,10 @@
         <v>0</v>
       </c>
       <c r="M153" t="s">
-        <v>376</v>
-      </c>
-      <c r="N153" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>380</v>
       </c>
@@ -9197,13 +8737,10 @@
         <v>1</v>
       </c>
       <c r="M154" t="s">
-        <v>279</v>
-      </c>
-      <c r="N154" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>382</v>
       </c>
@@ -9235,13 +8772,10 @@
         <v>0</v>
       </c>
       <c r="M155" t="s">
-        <v>279</v>
-      </c>
-      <c r="N155" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>384</v>
       </c>
@@ -9273,13 +8807,10 @@
         <v>0</v>
       </c>
       <c r="M156" t="s">
-        <v>385</v>
-      </c>
-      <c r="N156" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>387</v>
       </c>
@@ -9314,13 +8845,10 @@
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>385</v>
-      </c>
-      <c r="N157" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>389</v>
       </c>
@@ -9352,13 +8880,10 @@
         <v>0</v>
       </c>
       <c r="M158" t="s">
-        <v>390</v>
-      </c>
-      <c r="N158" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>392</v>
       </c>
@@ -9393,13 +8918,10 @@
         <v>1</v>
       </c>
       <c r="M159" t="s">
-        <v>390</v>
-      </c>
-      <c r="N159" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>394</v>
       </c>
@@ -9431,13 +8953,10 @@
         <v>0</v>
       </c>
       <c r="M160" t="s">
-        <v>395</v>
-      </c>
-      <c r="N160" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>397</v>
       </c>
@@ -9472,13 +8991,10 @@
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>395</v>
-      </c>
-      <c r="N161" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>399</v>
       </c>
@@ -9510,13 +9026,10 @@
         <v>0</v>
       </c>
       <c r="M162" t="s">
-        <v>400</v>
-      </c>
-      <c r="N162" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>402</v>
       </c>
@@ -9551,13 +9064,10 @@
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>400</v>
-      </c>
-      <c r="N163" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>404</v>
       </c>
@@ -9592,13 +9102,10 @@
         <v>1</v>
       </c>
       <c r="M164" t="s">
-        <v>15</v>
-      </c>
-      <c r="N164" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>406</v>
       </c>
@@ -9633,13 +9140,10 @@
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>15</v>
-      </c>
-      <c r="N165" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>408</v>
       </c>
@@ -9674,13 +9178,10 @@
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>409</v>
-      </c>
-      <c r="N166" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>411</v>
       </c>
@@ -9712,13 +9213,10 @@
         <v>0</v>
       </c>
       <c r="M167" t="s">
-        <v>409</v>
-      </c>
-      <c r="N167" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>413</v>
       </c>
@@ -9750,13 +9248,10 @@
         <v>0</v>
       </c>
       <c r="M168" t="s">
-        <v>414</v>
-      </c>
-      <c r="N168" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>416</v>
       </c>
@@ -9791,13 +9286,10 @@
         <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>414</v>
-      </c>
-      <c r="N169" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>418</v>
       </c>
@@ -9829,13 +9321,10 @@
         <v>0</v>
       </c>
       <c r="M170" t="s">
-        <v>82</v>
-      </c>
-      <c r="N170" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>420</v>
       </c>
@@ -9870,13 +9359,10 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>82</v>
-      </c>
-      <c r="N171" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>422</v>
       </c>
@@ -9911,13 +9397,10 @@
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>371</v>
-      </c>
-      <c r="N172" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>424</v>
       </c>
@@ -9949,13 +9432,10 @@
         <v>0</v>
       </c>
       <c r="M173" t="s">
-        <v>371</v>
-      </c>
-      <c r="N173" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>426</v>
       </c>
@@ -9990,13 +9470,10 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>427</v>
-      </c>
-      <c r="N174" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>429</v>
       </c>
@@ -10028,13 +9505,10 @@
         <v>0</v>
       </c>
       <c r="M175" t="s">
-        <v>427</v>
-      </c>
-      <c r="N175" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>431</v>
       </c>
@@ -10066,13 +9540,10 @@
         <v>0</v>
       </c>
       <c r="M176" t="s">
-        <v>432</v>
-      </c>
-      <c r="N176" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>434</v>
       </c>
@@ -10107,13 +9578,10 @@
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>432</v>
-      </c>
-      <c r="N177" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>436</v>
       </c>
@@ -10148,13 +9616,10 @@
         <v>1</v>
       </c>
       <c r="M178" t="s">
-        <v>15</v>
-      </c>
-      <c r="N178" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>438</v>
       </c>
@@ -10189,13 +9654,10 @@
         <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>15</v>
-      </c>
-      <c r="N179" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>440</v>
       </c>
@@ -10230,13 +9692,10 @@
         <v>1</v>
       </c>
       <c r="M180" t="s">
-        <v>297</v>
-      </c>
-      <c r="N180" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>442</v>
       </c>
@@ -10268,13 +9727,10 @@
         <v>0</v>
       </c>
       <c r="M181" t="s">
-        <v>297</v>
-      </c>
-      <c r="N181" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>444</v>
       </c>
@@ -10309,13 +9765,10 @@
         <v>1</v>
       </c>
       <c r="M182" t="s">
-        <v>352</v>
-      </c>
-      <c r="N182" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>446</v>
       </c>
@@ -10347,13 +9800,10 @@
         <v>0</v>
       </c>
       <c r="M183" t="s">
-        <v>352</v>
-      </c>
-      <c r="N183" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>448</v>
       </c>
@@ -10385,13 +9835,10 @@
         <v>0</v>
       </c>
       <c r="M184" t="s">
-        <v>449</v>
-      </c>
-      <c r="N184" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>451</v>
       </c>
@@ -10426,13 +9873,10 @@
         <v>1</v>
       </c>
       <c r="M185" t="s">
-        <v>449</v>
-      </c>
-      <c r="N185" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>453</v>
       </c>
@@ -10467,13 +9911,10 @@
         <v>1</v>
       </c>
       <c r="M186" t="s">
-        <v>454</v>
-      </c>
-      <c r="N186" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>456</v>
       </c>
@@ -10505,13 +9946,10 @@
         <v>0</v>
       </c>
       <c r="M187" t="s">
-        <v>454</v>
-      </c>
-      <c r="N187" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>458</v>
       </c>
@@ -10546,13 +9984,10 @@
         <v>1</v>
       </c>
       <c r="M188" t="s">
-        <v>267</v>
-      </c>
-      <c r="N188" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>460</v>
       </c>
@@ -10587,13 +10022,10 @@
         <v>0</v>
       </c>
       <c r="M189" t="s">
-        <v>267</v>
-      </c>
-      <c r="N189" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>462</v>
       </c>
@@ -10628,13 +10060,10 @@
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>15</v>
-      </c>
-      <c r="N190" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>464</v>
       </c>
@@ -10669,13 +10098,10 @@
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>15</v>
-      </c>
-      <c r="N191" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>466</v>
       </c>
@@ -10710,13 +10136,10 @@
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>467</v>
-      </c>
-      <c r="N192" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>469</v>
       </c>
@@ -10748,13 +10171,10 @@
         <v>0</v>
       </c>
       <c r="M193" t="s">
-        <v>467</v>
-      </c>
-      <c r="N193" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>471</v>
       </c>
@@ -10789,13 +10209,10 @@
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>472</v>
-      </c>
-      <c r="N194" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>474</v>
       </c>
@@ -10827,13 +10244,10 @@
         <v>0</v>
       </c>
       <c r="M195" t="s">
-        <v>472</v>
-      </c>
-      <c r="N195" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>476</v>
       </c>
@@ -10865,13 +10279,10 @@
         <v>0</v>
       </c>
       <c r="M196" t="s">
-        <v>477</v>
-      </c>
-      <c r="N196" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>479</v>
       </c>
@@ -10906,13 +10317,10 @@
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>477</v>
-      </c>
-      <c r="N197" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>481</v>
       </c>
@@ -10944,13 +10352,10 @@
         <v>0</v>
       </c>
       <c r="M198" t="s">
-        <v>482</v>
-      </c>
-      <c r="N198" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>484</v>
       </c>
@@ -10985,13 +10390,10 @@
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>482</v>
-      </c>
-      <c r="N199" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>486</v>
       </c>
@@ -11026,13 +10428,10 @@
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>488</v>
-      </c>
-      <c r="N200" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>489</v>
       </c>
@@ -11064,13 +10463,10 @@
         <v>0</v>
       </c>
       <c r="M201" t="s">
-        <v>488</v>
-      </c>
-      <c r="N201" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>491</v>
       </c>
@@ -11102,13 +10498,10 @@
         <v>0</v>
       </c>
       <c r="M202" t="s">
-        <v>146</v>
-      </c>
-      <c r="N202" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>493</v>
       </c>
@@ -11143,13 +10536,10 @@
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>146</v>
-      </c>
-      <c r="N203" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>495</v>
       </c>
@@ -11184,13 +10574,10 @@
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>497</v>
-      </c>
-      <c r="N204" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>498</v>
       </c>
@@ -11222,13 +10609,10 @@
         <v>0</v>
       </c>
       <c r="M205" t="s">
-        <v>497</v>
-      </c>
-      <c r="N205" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>500</v>
       </c>
@@ -11263,13 +10647,10 @@
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>502</v>
-      </c>
-      <c r="N206" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>503</v>
       </c>
@@ -11301,13 +10682,10 @@
         <v>0</v>
       </c>
       <c r="M207" t="s">
-        <v>502</v>
-      </c>
-      <c r="N207" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>505</v>
       </c>
@@ -11339,13 +10717,10 @@
         <v>0</v>
       </c>
       <c r="M208" t="s">
-        <v>112</v>
-      </c>
-      <c r="N208" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>507</v>
       </c>
@@ -11380,13 +10755,10 @@
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>112</v>
-      </c>
-      <c r="N209" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>509</v>
       </c>
@@ -11421,13 +10793,10 @@
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>135</v>
-      </c>
-      <c r="N210" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>511</v>
       </c>
@@ -11459,13 +10828,10 @@
         <v>0</v>
       </c>
       <c r="M211" t="s">
-        <v>135</v>
-      </c>
-      <c r="N211" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>513</v>
       </c>
@@ -11500,13 +10866,10 @@
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>515</v>
-      </c>
-      <c r="N212" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>516</v>
       </c>
@@ -11538,13 +10901,10 @@
         <v>0</v>
       </c>
       <c r="M213" t="s">
-        <v>515</v>
-      </c>
-      <c r="N213" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>518</v>
       </c>
@@ -11576,13 +10936,10 @@
         <v>0</v>
       </c>
       <c r="M214" t="s">
-        <v>390</v>
-      </c>
-      <c r="N214" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>520</v>
       </c>
@@ -11617,13 +10974,10 @@
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>390</v>
-      </c>
-      <c r="N215" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>522</v>
       </c>
@@ -11658,13 +11012,10 @@
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>523</v>
-      </c>
-      <c r="N216" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>525</v>
       </c>
@@ -11696,13 +11047,10 @@
         <v>0</v>
       </c>
       <c r="M217" t="s">
-        <v>523</v>
-      </c>
-      <c r="N217" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>527</v>
       </c>
@@ -11737,13 +11085,10 @@
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>502</v>
-      </c>
-      <c r="N218" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>529</v>
       </c>
@@ -11775,13 +11120,10 @@
         <v>0</v>
       </c>
       <c r="M219" t="s">
-        <v>502</v>
-      </c>
-      <c r="N219" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>531</v>
       </c>
@@ -11816,13 +11158,10 @@
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>385</v>
-      </c>
-      <c r="N220" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>533</v>
       </c>
@@ -11854,13 +11193,10 @@
         <v>0</v>
       </c>
       <c r="M221" t="s">
-        <v>385</v>
-      </c>
-      <c r="N221" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>535</v>
       </c>
@@ -11895,13 +11231,10 @@
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>15</v>
-      </c>
-      <c r="N222" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>537</v>
       </c>
@@ -11936,13 +11269,10 @@
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>15</v>
-      </c>
-      <c r="N223" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>539</v>
       </c>
@@ -11974,13 +11304,10 @@
         <v>0</v>
       </c>
       <c r="M224" t="s">
-        <v>140</v>
-      </c>
-      <c r="N224" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>541</v>
       </c>
@@ -12015,13 +11342,10 @@
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>140</v>
-      </c>
-      <c r="N225" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>543</v>
       </c>
@@ -12053,13 +11377,10 @@
         <v>0</v>
       </c>
       <c r="M226" t="s">
-        <v>232</v>
-      </c>
-      <c r="N226" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>545</v>
       </c>
@@ -12094,13 +11415,10 @@
         <v>1</v>
       </c>
       <c r="M227" t="s">
-        <v>232</v>
-      </c>
-      <c r="N227" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>547</v>
       </c>
@@ -12132,13 +11450,10 @@
         <v>0</v>
       </c>
       <c r="M228" t="s">
-        <v>548</v>
-      </c>
-      <c r="N228" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>550</v>
       </c>
@@ -12173,13 +11488,10 @@
         <v>1</v>
       </c>
       <c r="M229" t="s">
-        <v>548</v>
-      </c>
-      <c r="N229" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>552</v>
       </c>
@@ -12214,13 +11526,10 @@
         <v>0</v>
       </c>
       <c r="M230" t="s">
-        <v>554</v>
-      </c>
-      <c r="N230" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>555</v>
       </c>
@@ -12255,13 +11564,10 @@
         <v>1</v>
       </c>
       <c r="M231" t="s">
-        <v>554</v>
-      </c>
-      <c r="N231" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>557</v>
       </c>
@@ -12296,13 +11602,10 @@
         <v>1</v>
       </c>
       <c r="M232" t="s">
-        <v>558</v>
-      </c>
-      <c r="N232" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>560</v>
       </c>
@@ -12334,13 +11637,10 @@
         <v>0</v>
       </c>
       <c r="M233" t="s">
-        <v>558</v>
-      </c>
-      <c r="N233" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>562</v>
       </c>
@@ -12372,13 +11672,10 @@
         <v>0</v>
       </c>
       <c r="M234" t="s">
-        <v>45</v>
-      </c>
-      <c r="N234" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>564</v>
       </c>
@@ -12413,13 +11710,10 @@
         <v>1</v>
       </c>
       <c r="M235" t="s">
-        <v>45</v>
-      </c>
-      <c r="N235" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>566</v>
       </c>
@@ -12454,13 +11748,10 @@
         <v>1</v>
       </c>
       <c r="M236" t="s">
-        <v>62</v>
-      </c>
-      <c r="N236" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>568</v>
       </c>
@@ -12492,13 +11783,10 @@
         <v>0</v>
       </c>
       <c r="M237" t="s">
-        <v>62</v>
-      </c>
-      <c r="N237" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>570</v>
       </c>
@@ -12533,13 +11821,10 @@
         <v>1</v>
       </c>
       <c r="M238" t="s">
-        <v>302</v>
-      </c>
-      <c r="N238" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>572</v>
       </c>
@@ -12571,13 +11856,10 @@
         <v>0</v>
       </c>
       <c r="M239" t="s">
-        <v>302</v>
-      </c>
-      <c r="N239" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>574</v>
       </c>
@@ -12612,13 +11894,10 @@
         <v>1</v>
       </c>
       <c r="M240" t="s">
-        <v>575</v>
-      </c>
-      <c r="N240" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>577</v>
       </c>
@@ -12650,13 +11929,10 @@
         <v>0</v>
       </c>
       <c r="M241" t="s">
-        <v>575</v>
-      </c>
-      <c r="N241" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>579</v>
       </c>
@@ -12688,13 +11964,10 @@
         <v>0</v>
       </c>
       <c r="M242" t="s">
-        <v>580</v>
-      </c>
-      <c r="N242" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>582</v>
       </c>
@@ -12729,13 +12002,10 @@
         <v>1</v>
       </c>
       <c r="M243" t="s">
-        <v>580</v>
-      </c>
-      <c r="N243" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>584</v>
       </c>
@@ -12770,13 +12040,10 @@
         <v>1</v>
       </c>
       <c r="M244" t="s">
-        <v>477</v>
-      </c>
-      <c r="N244" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>586</v>
       </c>
@@ -12808,13 +12075,10 @@
         <v>0</v>
       </c>
       <c r="M245" t="s">
-        <v>477</v>
-      </c>
-      <c r="N245" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>588</v>
       </c>
@@ -12849,13 +12113,10 @@
         <v>1</v>
       </c>
       <c r="M246" t="s">
-        <v>15</v>
-      </c>
-      <c r="N246" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>590</v>
       </c>
@@ -12890,13 +12151,10 @@
         <v>1</v>
       </c>
       <c r="M247" t="s">
-        <v>15</v>
-      </c>
-      <c r="N247" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>592</v>
       </c>
@@ -12931,13 +12189,10 @@
         <v>1</v>
       </c>
       <c r="M248" t="s">
-        <v>593</v>
-      </c>
-      <c r="N248" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>595</v>
       </c>
@@ -12969,13 +12224,10 @@
         <v>0</v>
       </c>
       <c r="M249" t="s">
-        <v>593</v>
-      </c>
-      <c r="N249" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>597</v>
       </c>
@@ -13010,13 +12262,10 @@
         <v>1</v>
       </c>
       <c r="M250" t="s">
-        <v>183</v>
-      </c>
-      <c r="N250" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>599</v>
       </c>
@@ -13048,13 +12297,10 @@
         <v>0</v>
       </c>
       <c r="M251" t="s">
-        <v>183</v>
-      </c>
-      <c r="N251" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>601</v>
       </c>
@@ -13086,13 +12332,10 @@
         <v>0</v>
       </c>
       <c r="M252" t="s">
-        <v>602</v>
-      </c>
-      <c r="N252" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>604</v>
       </c>
@@ -13127,13 +12370,10 @@
         <v>1</v>
       </c>
       <c r="M253" t="s">
-        <v>602</v>
-      </c>
-      <c r="N253" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>606</v>
       </c>
@@ -13165,13 +12405,10 @@
         <v>0</v>
       </c>
       <c r="M254" t="s">
-        <v>67</v>
-      </c>
-      <c r="N254" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>608</v>
       </c>
@@ -13206,13 +12443,10 @@
         <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>67</v>
-      </c>
-      <c r="N255" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>610</v>
       </c>
@@ -13247,13 +12481,10 @@
         <v>1</v>
       </c>
       <c r="M256" t="s">
-        <v>548</v>
-      </c>
-      <c r="N256" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>612</v>
       </c>
@@ -13285,13 +12516,10 @@
         <v>0</v>
       </c>
       <c r="M257" t="s">
-        <v>548</v>
-      </c>
-      <c r="N257" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>614</v>
       </c>
@@ -13323,13 +12551,10 @@
         <v>0</v>
       </c>
       <c r="M258" t="s">
-        <v>482</v>
-      </c>
-      <c r="N258" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>616</v>
       </c>
@@ -13364,13 +12589,10 @@
         <v>1</v>
       </c>
       <c r="M259" t="s">
-        <v>482</v>
-      </c>
-      <c r="N259" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>618</v>
       </c>
@@ -13402,13 +12624,10 @@
         <v>0</v>
       </c>
       <c r="M260" t="s">
-        <v>619</v>
-      </c>
-      <c r="N260" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>621</v>
       </c>
@@ -13443,13 +12662,10 @@
         <v>1</v>
       </c>
       <c r="M261" t="s">
-        <v>619</v>
-      </c>
-      <c r="N261" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>623</v>
       </c>
@@ -13484,13 +12700,10 @@
         <v>1</v>
       </c>
       <c r="M262" t="s">
-        <v>126</v>
-      </c>
-      <c r="N262" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>625</v>
       </c>
@@ -13522,13 +12735,10 @@
         <v>0</v>
       </c>
       <c r="M263" t="s">
-        <v>126</v>
-      </c>
-      <c r="N263" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>627</v>
       </c>
@@ -13563,13 +12773,10 @@
         <v>1</v>
       </c>
       <c r="M264" t="s">
-        <v>628</v>
-      </c>
-      <c r="N264" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>630</v>
       </c>
@@ -13601,13 +12808,10 @@
         <v>0</v>
       </c>
       <c r="M265" t="s">
-        <v>628</v>
-      </c>
-      <c r="N265" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>632</v>
       </c>
@@ -13642,13 +12846,10 @@
         <v>1</v>
       </c>
       <c r="M266" t="s">
-        <v>15</v>
-      </c>
-      <c r="N266" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>634</v>
       </c>
@@ -13683,13 +12884,10 @@
         <v>1</v>
       </c>
       <c r="M267" t="s">
-        <v>15</v>
-      </c>
-      <c r="N267" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>636</v>
       </c>
@@ -13721,13 +12919,10 @@
         <v>0</v>
       </c>
       <c r="M268" t="s">
-        <v>188</v>
-      </c>
-      <c r="N268" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>638</v>
       </c>
@@ -13762,13 +12957,10 @@
         <v>1</v>
       </c>
       <c r="M269" t="s">
-        <v>188</v>
-      </c>
-      <c r="N269" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>640</v>
       </c>
@@ -13800,13 +12992,10 @@
         <v>0</v>
       </c>
       <c r="M270" t="s">
-        <v>9</v>
-      </c>
-      <c r="N270" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>642</v>
       </c>
@@ -13841,13 +13030,10 @@
         <v>1</v>
       </c>
       <c r="M271" t="s">
-        <v>9</v>
-      </c>
-      <c r="N271" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>644</v>
       </c>
@@ -13879,13 +13065,10 @@
         <v>0</v>
       </c>
       <c r="M272" t="s">
-        <v>645</v>
-      </c>
-      <c r="N272" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>647</v>
       </c>
@@ -13920,13 +13103,10 @@
         <v>1</v>
       </c>
       <c r="M273" t="s">
-        <v>645</v>
-      </c>
-      <c r="N273" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>649</v>
       </c>
@@ -13958,13 +13138,10 @@
         <v>0</v>
       </c>
       <c r="M274" t="s">
-        <v>432</v>
-      </c>
-      <c r="N274" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>651</v>
       </c>
@@ -13999,13 +13176,10 @@
         <v>1</v>
       </c>
       <c r="M275" t="s">
-        <v>432</v>
-      </c>
-      <c r="N275" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>653</v>
       </c>
@@ -14037,13 +13211,10 @@
         <v>0</v>
       </c>
       <c r="M276" t="s">
-        <v>654</v>
-      </c>
-      <c r="N276" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>656</v>
       </c>
@@ -14078,13 +13249,10 @@
         <v>1</v>
       </c>
       <c r="M277" t="s">
-        <v>654</v>
-      </c>
-      <c r="N277" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>658</v>
       </c>
@@ -14119,13 +13287,10 @@
         <v>0</v>
       </c>
       <c r="M278" t="s">
-        <v>340</v>
-      </c>
-      <c r="N278" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>660</v>
       </c>
@@ -14160,13 +13325,10 @@
         <v>1</v>
       </c>
       <c r="M279" t="s">
-        <v>340</v>
-      </c>
-      <c r="N279" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>662</v>
       </c>
@@ -14201,13 +13363,10 @@
         <v>1</v>
       </c>
       <c r="M280" t="s">
-        <v>242</v>
-      </c>
-      <c r="N280" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>664</v>
       </c>
@@ -14239,13 +13398,10 @@
         <v>0</v>
       </c>
       <c r="M281" t="s">
-        <v>242</v>
-      </c>
-      <c r="N281" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>666</v>
       </c>
@@ -14280,13 +13436,10 @@
         <v>1</v>
       </c>
       <c r="M282" t="s">
-        <v>316</v>
-      </c>
-      <c r="N282" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>668</v>
       </c>
@@ -14318,13 +13471,10 @@
         <v>0</v>
       </c>
       <c r="M283" t="s">
-        <v>316</v>
-      </c>
-      <c r="N283" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>670</v>
       </c>
@@ -14359,13 +13509,10 @@
         <v>1</v>
       </c>
       <c r="M284" t="s">
-        <v>671</v>
-      </c>
-      <c r="N284" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>673</v>
       </c>
@@ -14397,13 +13544,10 @@
         <v>0</v>
       </c>
       <c r="M285" t="s">
-        <v>671</v>
-      </c>
-      <c r="N285" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>675</v>
       </c>
@@ -14435,13 +13579,10 @@
         <v>0</v>
       </c>
       <c r="M286" t="s">
-        <v>523</v>
-      </c>
-      <c r="N286" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>677</v>
       </c>
@@ -14476,13 +13617,10 @@
         <v>1</v>
       </c>
       <c r="M287" t="s">
-        <v>523</v>
-      </c>
-      <c r="N287" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>679</v>
       </c>
@@ -14517,13 +13655,10 @@
         <v>1</v>
       </c>
       <c r="M288" t="s">
-        <v>414</v>
-      </c>
-      <c r="N288" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>681</v>
       </c>
@@ -14555,13 +13690,10 @@
         <v>0</v>
       </c>
       <c r="M289" t="s">
-        <v>414</v>
-      </c>
-      <c r="N289" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>683</v>
       </c>
@@ -14596,13 +13728,10 @@
         <v>1</v>
       </c>
       <c r="M290" t="s">
-        <v>15</v>
-      </c>
-      <c r="N290" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>685</v>
       </c>
@@ -14637,13 +13766,10 @@
         <v>1</v>
       </c>
       <c r="M291" t="s">
-        <v>15</v>
-      </c>
-      <c r="N291" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>687</v>
       </c>
@@ -14678,13 +13804,10 @@
         <v>1</v>
       </c>
       <c r="M292" t="s">
-        <v>688</v>
-      </c>
-      <c r="N292" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>690</v>
       </c>
@@ -14716,13 +13839,10 @@
         <v>0</v>
       </c>
       <c r="M293" t="s">
-        <v>688</v>
-      </c>
-      <c r="N293" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>692</v>
       </c>
@@ -14754,13 +13874,10 @@
         <v>0</v>
       </c>
       <c r="M294" t="s">
-        <v>693</v>
-      </c>
-      <c r="N294" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>695</v>
       </c>
@@ -14795,13 +13912,10 @@
         <v>1</v>
       </c>
       <c r="M295" t="s">
-        <v>693</v>
-      </c>
-      <c r="N295" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>697</v>
       </c>
@@ -14836,13 +13950,10 @@
         <v>1</v>
       </c>
       <c r="M296" t="s">
-        <v>671</v>
-      </c>
-      <c r="N296" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>699</v>
       </c>
@@ -14874,13 +13985,10 @@
         <v>0</v>
       </c>
       <c r="M297" t="s">
-        <v>671</v>
-      </c>
-      <c r="N297" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>701</v>
       </c>
@@ -14915,13 +14023,10 @@
         <v>1</v>
       </c>
       <c r="M298" t="s">
-        <v>702</v>
-      </c>
-      <c r="N298" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>704</v>
       </c>
@@ -14953,13 +14058,10 @@
         <v>0</v>
       </c>
       <c r="M299" t="s">
-        <v>702</v>
-      </c>
-      <c r="N299" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>706</v>
       </c>
@@ -14991,13 +14093,10 @@
         <v>0</v>
       </c>
       <c r="M300" t="s">
-        <v>449</v>
-      </c>
-      <c r="N300" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>708</v>
       </c>
@@ -15032,13 +14131,10 @@
         <v>1</v>
       </c>
       <c r="M301" t="s">
-        <v>449</v>
-      </c>
-      <c r="N301" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>710</v>
       </c>
@@ -15073,13 +14169,10 @@
         <v>1</v>
       </c>
       <c r="M302" t="s">
-        <v>711</v>
-      </c>
-      <c r="N302" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>713</v>
       </c>
@@ -15111,13 +14204,10 @@
         <v>0</v>
       </c>
       <c r="M303" t="s">
-        <v>711</v>
-      </c>
-      <c r="N303" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>715</v>
       </c>
@@ -15152,13 +14242,10 @@
         <v>1</v>
       </c>
       <c r="M304" t="s">
-        <v>238</v>
-      </c>
-      <c r="N304" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>717</v>
       </c>
@@ -15193,13 +14280,10 @@
         <v>0</v>
       </c>
       <c r="M305" t="s">
-        <v>238</v>
-      </c>
-      <c r="N305" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>719</v>
       </c>
@@ -15231,13 +14315,10 @@
         <v>0</v>
       </c>
       <c r="M306" t="s">
-        <v>720</v>
-      </c>
-      <c r="N306" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>722</v>
       </c>
@@ -15272,13 +14353,10 @@
         <v>1</v>
       </c>
       <c r="M307" t="s">
-        <v>720</v>
-      </c>
-      <c r="N307" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>724</v>
       </c>
@@ -15310,13 +14388,10 @@
         <v>0</v>
       </c>
       <c r="M308" t="s">
-        <v>102</v>
-      </c>
-      <c r="N308" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>726</v>
       </c>
@@ -15351,13 +14426,10 @@
         <v>1</v>
       </c>
       <c r="M309" t="s">
-        <v>102</v>
-      </c>
-      <c r="N309" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>728</v>
       </c>
@@ -15392,13 +14464,10 @@
         <v>1</v>
       </c>
       <c r="M310" t="s">
-        <v>227</v>
-      </c>
-      <c r="N310" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>730</v>
       </c>
@@ -15430,13 +14499,10 @@
         <v>0</v>
       </c>
       <c r="M311" t="s">
-        <v>227</v>
-      </c>
-      <c r="N311" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>732</v>
       </c>
@@ -15471,13 +14537,10 @@
         <v>1</v>
       </c>
       <c r="M312" t="s">
-        <v>15</v>
-      </c>
-      <c r="N312" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>734</v>
       </c>
@@ -15512,13 +14575,10 @@
         <v>1</v>
       </c>
       <c r="M313" t="s">
-        <v>15</v>
-      </c>
-      <c r="N313" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>736</v>
       </c>
@@ -15550,13 +14610,10 @@
         <v>0</v>
       </c>
       <c r="M314" t="s">
-        <v>409</v>
-      </c>
-      <c r="N314" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>738</v>
       </c>
@@ -15591,13 +14648,10 @@
         <v>1</v>
       </c>
       <c r="M315" t="s">
-        <v>409</v>
-      </c>
-      <c r="N315" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>740</v>
       </c>
@@ -15632,13 +14686,10 @@
         <v>1</v>
       </c>
       <c r="M316" t="s">
-        <v>357</v>
-      </c>
-      <c r="N316" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>742</v>
       </c>
@@ -15670,13 +14721,10 @@
         <v>0</v>
       </c>
       <c r="M317" t="s">
-        <v>357</v>
-      </c>
-      <c r="N317" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>744</v>
       </c>
@@ -15708,13 +14756,10 @@
         <v>0</v>
       </c>
       <c r="M318" t="s">
-        <v>488</v>
-      </c>
-      <c r="N318" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>746</v>
       </c>
@@ -15749,13 +14794,10 @@
         <v>1</v>
       </c>
       <c r="M319" t="s">
-        <v>488</v>
-      </c>
-      <c r="N319" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>748</v>
       </c>
@@ -15787,13 +14829,10 @@
         <v>0</v>
       </c>
       <c r="M320" t="s">
-        <v>558</v>
-      </c>
-      <c r="N320" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>750</v>
       </c>
@@ -15828,13 +14867,10 @@
         <v>1</v>
       </c>
       <c r="M321" t="s">
-        <v>558</v>
-      </c>
-      <c r="N321" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>752</v>
       </c>
@@ -15869,13 +14905,10 @@
         <v>1</v>
       </c>
       <c r="M322" t="s">
-        <v>15</v>
-      </c>
-      <c r="N322" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>754</v>
       </c>
@@ -15910,13 +14943,10 @@
         <v>1</v>
       </c>
       <c r="M323" t="s">
-        <v>15</v>
-      </c>
-      <c r="N323" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>756</v>
       </c>
@@ -15948,13 +14978,10 @@
         <v>0</v>
       </c>
       <c r="M324" t="s">
-        <v>757</v>
-      </c>
-      <c r="N324" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>759</v>
       </c>
@@ -15989,13 +15016,10 @@
         <v>1</v>
       </c>
       <c r="M325" t="s">
-        <v>757</v>
-      </c>
-      <c r="N325" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>761</v>
       </c>
@@ -16027,13 +15051,10 @@
         <v>0</v>
       </c>
       <c r="M326" t="s">
-        <v>87</v>
-      </c>
-      <c r="N326" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>763</v>
       </c>
@@ -16068,13 +15089,10 @@
         <v>1</v>
       </c>
       <c r="M327" t="s">
-        <v>87</v>
-      </c>
-      <c r="N327" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>765</v>
       </c>
@@ -16106,13 +15124,10 @@
         <v>0</v>
       </c>
       <c r="M328" t="s">
-        <v>688</v>
-      </c>
-      <c r="N328" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>767</v>
       </c>
@@ -16147,13 +15162,10 @@
         <v>1</v>
       </c>
       <c r="M329" t="s">
-        <v>688</v>
-      </c>
-      <c r="N329" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>769</v>
       </c>
@@ -16188,13 +15200,10 @@
         <v>1</v>
       </c>
       <c r="M330" t="s">
-        <v>770</v>
-      </c>
-      <c r="N330" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>772</v>
       </c>
@@ -16226,13 +15235,10 @@
         <v>0</v>
       </c>
       <c r="M331" t="s">
-        <v>770</v>
-      </c>
-      <c r="N331" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>774</v>
       </c>
@@ -16267,13 +15273,10 @@
         <v>1</v>
       </c>
       <c r="M332" t="s">
-        <v>554</v>
-      </c>
-      <c r="N332" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>776</v>
       </c>
@@ -16308,13 +15311,10 @@
         <v>0</v>
       </c>
       <c r="M333" t="s">
-        <v>554</v>
-      </c>
-      <c r="N333" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>778</v>
       </c>
@@ -16349,13 +15349,10 @@
         <v>1</v>
       </c>
       <c r="M334" t="s">
-        <v>212</v>
-      </c>
-      <c r="N334" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>780</v>
       </c>
@@ -16387,13 +15384,10 @@
         <v>0</v>
       </c>
       <c r="M335" t="s">
-        <v>212</v>
-      </c>
-      <c r="N335" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>782</v>
       </c>
@@ -16425,13 +15419,10 @@
         <v>0</v>
       </c>
       <c r="M336" t="s">
-        <v>121</v>
-      </c>
-      <c r="N336" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>784</v>
       </c>
@@ -16466,13 +15457,10 @@
         <v>1</v>
       </c>
       <c r="M337" t="s">
-        <v>121</v>
-      </c>
-      <c r="N337" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>786</v>
       </c>
@@ -16504,13 +15492,10 @@
         <v>0</v>
       </c>
       <c r="M338" t="s">
-        <v>362</v>
-      </c>
-      <c r="N338" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>788</v>
       </c>
@@ -16545,13 +15530,10 @@
         <v>1</v>
       </c>
       <c r="M339" t="s">
-        <v>362</v>
-      </c>
-      <c r="N339" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>790</v>
       </c>
@@ -16583,13 +15565,10 @@
         <v>0</v>
       </c>
       <c r="M340" t="s">
-        <v>472</v>
-      </c>
-      <c r="N340" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>792</v>
       </c>
@@ -16624,13 +15603,10 @@
         <v>1</v>
       </c>
       <c r="M341" t="s">
-        <v>472</v>
-      </c>
-      <c r="N341" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>794</v>
       </c>
@@ -16662,13 +15638,10 @@
         <v>0</v>
       </c>
       <c r="M342" t="s">
-        <v>292</v>
-      </c>
-      <c r="N342" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>796</v>
       </c>
@@ -16703,13 +15676,10 @@
         <v>1</v>
       </c>
       <c r="M343" t="s">
-        <v>292</v>
-      </c>
-      <c r="N343" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>798</v>
       </c>
@@ -16744,13 +15714,10 @@
         <v>1</v>
       </c>
       <c r="M344" t="s">
-        <v>602</v>
-      </c>
-      <c r="N344" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>800</v>
       </c>
@@ -16782,13 +15749,10 @@
         <v>0</v>
       </c>
       <c r="M345" t="s">
-        <v>602</v>
-      </c>
-      <c r="N345" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>802</v>
       </c>
@@ -16820,13 +15784,10 @@
         <v>0</v>
       </c>
       <c r="M346" t="s">
-        <v>217</v>
-      </c>
-      <c r="N346" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>804</v>
       </c>
@@ -16861,13 +15822,10 @@
         <v>1</v>
       </c>
       <c r="M347" t="s">
-        <v>217</v>
-      </c>
-      <c r="N347" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>806</v>
       </c>
@@ -16902,13 +15860,10 @@
         <v>1</v>
       </c>
       <c r="M348" t="s">
-        <v>807</v>
-      </c>
-      <c r="N348" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>809</v>
       </c>
@@ -16940,13 +15895,10 @@
         <v>0</v>
       </c>
       <c r="M349" t="s">
-        <v>807</v>
-      </c>
-      <c r="N349" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>811</v>
       </c>
@@ -16978,13 +15930,10 @@
         <v>0</v>
       </c>
       <c r="M350" t="s">
-        <v>163</v>
-      </c>
-      <c r="N350" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>813</v>
       </c>
@@ -17019,13 +15968,10 @@
         <v>1</v>
       </c>
       <c r="M351" t="s">
-        <v>163</v>
-      </c>
-      <c r="N351" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>815</v>
       </c>
@@ -17057,13 +16003,10 @@
         <v>0</v>
       </c>
       <c r="M352" t="s">
-        <v>711</v>
-      </c>
-      <c r="N352" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>817</v>
       </c>
@@ -17098,13 +16041,10 @@
         <v>1</v>
       </c>
       <c r="M353" t="s">
-        <v>711</v>
-      </c>
-      <c r="N353" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>819</v>
       </c>
@@ -17139,13 +16079,10 @@
         <v>1</v>
       </c>
       <c r="M354" t="s">
-        <v>15</v>
-      </c>
-      <c r="N354" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>821</v>
       </c>
@@ -17180,13 +16117,10 @@
         <v>1</v>
       </c>
       <c r="M355" t="s">
-        <v>15</v>
-      </c>
-      <c r="N355" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>823</v>
       </c>
@@ -17218,13 +16152,10 @@
         <v>0</v>
       </c>
       <c r="M356" t="s">
-        <v>702</v>
-      </c>
-      <c r="N356" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>825</v>
       </c>
@@ -17259,13 +16190,10 @@
         <v>1</v>
       </c>
       <c r="M357" t="s">
-        <v>702</v>
-      </c>
-      <c r="N357" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>827</v>
       </c>
@@ -17297,13 +16225,10 @@
         <v>0</v>
       </c>
       <c r="M358" t="s">
-        <v>693</v>
-      </c>
-      <c r="N358" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>829</v>
       </c>
@@ -17338,13 +16263,10 @@
         <v>1</v>
       </c>
       <c r="M359" t="s">
-        <v>693</v>
-      </c>
-      <c r="N359" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>831</v>
       </c>
@@ -17376,13 +16298,10 @@
         <v>0</v>
       </c>
       <c r="M360" t="s">
-        <v>454</v>
-      </c>
-      <c r="N360" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>833</v>
       </c>
@@ -17417,13 +16336,10 @@
         <v>1</v>
       </c>
       <c r="M361" t="s">
-        <v>454</v>
-      </c>
-      <c r="N361" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>835</v>
       </c>
@@ -17458,13 +16374,10 @@
         <v>1</v>
       </c>
       <c r="M362" t="s">
-        <v>15</v>
-      </c>
-      <c r="N362" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>837</v>
       </c>
@@ -17499,13 +16412,10 @@
         <v>1</v>
       </c>
       <c r="M363" t="s">
-        <v>15</v>
-      </c>
-      <c r="N363" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>839</v>
       </c>
@@ -17540,13 +16450,10 @@
         <v>1</v>
       </c>
       <c r="M364" t="s">
-        <v>593</v>
-      </c>
-      <c r="N364" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>841</v>
       </c>
@@ -17578,13 +16485,10 @@
         <v>0</v>
       </c>
       <c r="M365" t="s">
-        <v>593</v>
-      </c>
-      <c r="N365" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>843</v>
       </c>
@@ -17619,13 +16523,10 @@
         <v>1</v>
       </c>
       <c r="M366" t="s">
-        <v>55</v>
-      </c>
-      <c r="N366" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>845</v>
       </c>
@@ -17660,13 +16561,10 @@
         <v>0</v>
       </c>
       <c r="M367" t="s">
-        <v>55</v>
-      </c>
-      <c r="N367" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>847</v>
       </c>
@@ -17698,13 +16596,10 @@
         <v>0</v>
       </c>
       <c r="M368" t="s">
-        <v>848</v>
-      </c>
-      <c r="N368" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>850</v>
       </c>
@@ -17739,13 +16634,10 @@
         <v>1</v>
       </c>
       <c r="M369" t="s">
-        <v>848</v>
-      </c>
-      <c r="N369" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>852</v>
       </c>
@@ -17780,13 +16672,10 @@
         <v>1</v>
       </c>
       <c r="M370" t="s">
-        <v>853</v>
-      </c>
-      <c r="N370" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>855</v>
       </c>
@@ -17818,13 +16707,10 @@
         <v>0</v>
       </c>
       <c r="M371" t="s">
-        <v>853</v>
-      </c>
-      <c r="N371" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>857</v>
       </c>
@@ -17856,13 +16742,10 @@
         <v>0</v>
       </c>
       <c r="M372" t="s">
-        <v>628</v>
-      </c>
-      <c r="N372" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>859</v>
       </c>
@@ -17897,13 +16780,10 @@
         <v>1</v>
       </c>
       <c r="M373" t="s">
-        <v>628</v>
-      </c>
-      <c r="N373" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>861</v>
       </c>
@@ -17935,13 +16815,10 @@
         <v>0</v>
       </c>
       <c r="M374" t="s">
-        <v>33</v>
-      </c>
-      <c r="N374" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>863</v>
       </c>
@@ -17976,13 +16853,10 @@
         <v>1</v>
       </c>
       <c r="M375" t="s">
-        <v>33</v>
-      </c>
-      <c r="N375" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>865</v>
       </c>
@@ -18014,13 +16888,10 @@
         <v>0</v>
       </c>
       <c r="M376" t="s">
-        <v>400</v>
-      </c>
-      <c r="N376" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>867</v>
       </c>
@@ -18055,13 +16926,10 @@
         <v>1</v>
       </c>
       <c r="M377" t="s">
-        <v>400</v>
-      </c>
-      <c r="N377" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>869</v>
       </c>
@@ -18096,13 +16964,10 @@
         <v>1</v>
       </c>
       <c r="M378" t="s">
-        <v>870</v>
-      </c>
-      <c r="N378" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>872</v>
       </c>
@@ -18134,9 +16999,6 @@
         <v>0</v>
       </c>
       <c r="M379" t="s">
-        <v>870</v>
-      </c>
-      <c r="N379" t="s">
         <v>881</v>
       </c>
     </row>
